--- a/2017-2021 disability data.xlsx
+++ b/2017-2021 disability data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adesanya Aminat A\Desktop\LA 558\LA558_Abiola_Adesanya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12987A52-1EF9-436E-AFBC-B88F3F90DA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3136FB86-C553-4101-9907-EFD97AA345DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60660117-DBB8-46C9-8C3F-FEA6BE3C152B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{60660117-DBB8-46C9-8C3F-FEA6BE3C152B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1268,40 +1268,40 @@
     <t>Wright County, Iowa</t>
   </si>
   <si>
-    <t>35-64M</t>
-  </si>
-  <si>
-    <t>35-64M(With disability)</t>
-  </si>
-  <si>
-    <t>65-74M</t>
-  </si>
-  <si>
-    <t>65-74M(with disability)</t>
-  </si>
-  <si>
-    <t>75+M</t>
-  </si>
-  <si>
-    <t>75+ M(with disability)</t>
-  </si>
-  <si>
-    <t>35-64F</t>
-  </si>
-  <si>
-    <t>65-74F</t>
-  </si>
-  <si>
-    <t>65-74F(with disability)</t>
-  </si>
-  <si>
-    <t>35-64F(With disability)</t>
-  </si>
-  <si>
-    <t>75+F</t>
-  </si>
-  <si>
-    <t>75+F(with disability)</t>
+    <t>36_64M</t>
+  </si>
+  <si>
+    <t>35_64M(With disability)</t>
+  </si>
+  <si>
+    <t>65_74M</t>
+  </si>
+  <si>
+    <t>65_74M(with disability)</t>
+  </si>
+  <si>
+    <t>75_aboveM</t>
+  </si>
+  <si>
+    <t>75_above M(with disability)</t>
+  </si>
+  <si>
+    <t>35_64F</t>
+  </si>
+  <si>
+    <t>35_64F(With disability)</t>
+  </si>
+  <si>
+    <t>65_74F</t>
+  </si>
+  <si>
+    <t>65+74F(with disability)</t>
+  </si>
+  <si>
+    <t>75_aboveF</t>
+  </si>
+  <si>
+    <t>75_above(with disability)</t>
   </si>
 </sst>
 </file>
@@ -1662,18 +1662,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9254B9D3-2F44-475E-A8A2-E30FA0655849}">
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
     <col min="11" max="11" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1707,44 +1708,44 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="M1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="X1" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1775,44 +1776,44 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
+      <c r="L2">
+        <v>1415</v>
+      </c>
       <c r="M2">
-        <v>1415</v>
+        <v>196</v>
       </c>
       <c r="N2">
-        <v>196</v>
+        <v>419</v>
       </c>
       <c r="O2">
-        <v>419</v>
+        <v>99</v>
       </c>
       <c r="P2">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="Q2">
-        <v>281</v>
+        <v>129</v>
       </c>
       <c r="R2">
-        <v>129</v>
+        <v>1384</v>
       </c>
       <c r="S2">
-        <v>1384</v>
+        <v>273</v>
       </c>
       <c r="T2">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="U2">
-        <v>404</v>
+        <v>96</v>
       </c>
       <c r="V2">
-        <v>96</v>
+        <v>386</v>
       </c>
       <c r="W2">
-        <v>386</v>
-      </c>
-      <c r="X2">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1843,44 +1844,44 @@
       <c r="K3" t="s">
         <v>21</v>
       </c>
+      <c r="L3">
+        <v>719</v>
+      </c>
       <c r="M3">
-        <v>719</v>
+        <v>95</v>
       </c>
       <c r="N3">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="O3">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="P3">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="Q3">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="R3">
-        <v>72</v>
+        <v>713</v>
       </c>
       <c r="S3">
-        <v>713</v>
+        <v>56</v>
       </c>
       <c r="T3">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="U3">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="V3">
-        <v>49</v>
+        <v>205</v>
       </c>
       <c r="W3">
-        <v>205</v>
-      </c>
-      <c r="X3">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1911,44 +1912,44 @@
       <c r="K4" t="s">
         <v>25</v>
       </c>
+      <c r="L4">
+        <v>2698</v>
+      </c>
       <c r="M4">
-        <v>2698</v>
+        <v>322</v>
       </c>
       <c r="N4">
-        <v>322</v>
+        <v>901</v>
       </c>
       <c r="O4">
-        <v>901</v>
+        <v>145</v>
       </c>
       <c r="P4">
-        <v>145</v>
+        <v>520</v>
       </c>
       <c r="Q4">
-        <v>520</v>
+        <v>238</v>
       </c>
       <c r="R4">
-        <v>238</v>
+        <v>2507</v>
       </c>
       <c r="S4">
-        <v>2507</v>
+        <v>236</v>
       </c>
       <c r="T4">
-        <v>236</v>
+        <v>895</v>
       </c>
       <c r="U4">
-        <v>895</v>
+        <v>176</v>
       </c>
       <c r="V4">
-        <v>176</v>
+        <v>657</v>
       </c>
       <c r="W4">
-        <v>657</v>
-      </c>
-      <c r="X4">
         <v>361</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1979,44 +1980,44 @@
       <c r="K5" t="s">
         <v>29</v>
       </c>
+      <c r="L5">
+        <v>2346</v>
+      </c>
       <c r="M5">
-        <v>2346</v>
+        <v>354</v>
       </c>
       <c r="N5">
-        <v>354</v>
+        <v>750</v>
       </c>
       <c r="O5">
-        <v>750</v>
+        <v>215</v>
       </c>
       <c r="P5">
-        <v>215</v>
+        <v>520</v>
       </c>
       <c r="Q5">
-        <v>520</v>
+        <v>246</v>
       </c>
       <c r="R5">
-        <v>246</v>
+        <v>2329</v>
       </c>
       <c r="S5">
-        <v>2329</v>
+        <v>380</v>
       </c>
       <c r="T5">
-        <v>380</v>
+        <v>805</v>
       </c>
       <c r="U5">
-        <v>805</v>
+        <v>159</v>
       </c>
       <c r="V5">
-        <v>159</v>
+        <v>643</v>
       </c>
       <c r="W5">
-        <v>643</v>
-      </c>
-      <c r="X5">
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2047,44 +2048,44 @@
       <c r="K6" t="s">
         <v>33</v>
       </c>
+      <c r="L6">
+        <v>1085</v>
+      </c>
       <c r="M6">
-        <v>1085</v>
+        <v>131</v>
       </c>
       <c r="N6">
-        <v>131</v>
+        <v>346</v>
       </c>
       <c r="O6">
-        <v>346</v>
+        <v>78</v>
       </c>
       <c r="P6">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="Q6">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="R6">
-        <v>100</v>
+        <v>1025</v>
       </c>
       <c r="S6">
-        <v>1025</v>
+        <v>135</v>
       </c>
       <c r="T6">
-        <v>135</v>
+        <v>352</v>
       </c>
       <c r="U6">
-        <v>352</v>
+        <v>53</v>
       </c>
       <c r="V6">
-        <v>53</v>
+        <v>343</v>
       </c>
       <c r="W6">
-        <v>343</v>
-      </c>
-      <c r="X6">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2115,44 +2116,44 @@
       <c r="K7" t="s">
         <v>37</v>
       </c>
+      <c r="L7">
+        <v>5247</v>
+      </c>
       <c r="M7">
-        <v>5247</v>
+        <v>476</v>
       </c>
       <c r="N7">
-        <v>476</v>
+        <v>1290</v>
       </c>
       <c r="O7">
-        <v>1290</v>
+        <v>291</v>
       </c>
       <c r="P7">
-        <v>291</v>
+        <v>880</v>
       </c>
       <c r="Q7">
-        <v>880</v>
+        <v>365</v>
       </c>
       <c r="R7">
-        <v>365</v>
+        <v>5176</v>
       </c>
       <c r="S7">
-        <v>5176</v>
+        <v>548</v>
       </c>
       <c r="T7">
-        <v>548</v>
+        <v>1266</v>
       </c>
       <c r="U7">
-        <v>1266</v>
+        <v>245</v>
       </c>
       <c r="V7">
-        <v>245</v>
+        <v>1061</v>
       </c>
       <c r="W7">
-        <v>1061</v>
-      </c>
-      <c r="X7">
         <v>473</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2183,44 +2184,44 @@
       <c r="K8" t="s">
         <v>41</v>
       </c>
+      <c r="L8">
+        <v>22264</v>
+      </c>
       <c r="M8">
-        <v>22264</v>
+        <v>2913</v>
       </c>
       <c r="N8">
-        <v>2913</v>
+        <v>6000</v>
       </c>
       <c r="O8">
-        <v>6000</v>
+        <v>1669</v>
       </c>
       <c r="P8">
-        <v>1669</v>
+        <v>3525</v>
       </c>
       <c r="Q8">
-        <v>3525</v>
+        <v>1550</v>
       </c>
       <c r="R8">
-        <v>1550</v>
+        <v>22481</v>
       </c>
       <c r="S8">
-        <v>22481</v>
+        <v>3533</v>
       </c>
       <c r="T8">
-        <v>3533</v>
+        <v>6561</v>
       </c>
       <c r="U8">
-        <v>6561</v>
+        <v>1623</v>
       </c>
       <c r="V8">
-        <v>1623</v>
+        <v>5041</v>
       </c>
       <c r="W8">
-        <v>5041</v>
-      </c>
-      <c r="X8">
         <v>2131</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2251,44 +2252,44 @@
       <c r="K9" t="s">
         <v>45</v>
       </c>
+      <c r="L9">
+        <v>5501</v>
+      </c>
       <c r="M9">
-        <v>5501</v>
+        <v>697</v>
       </c>
       <c r="N9">
-        <v>697</v>
+        <v>1472</v>
       </c>
       <c r="O9">
-        <v>1472</v>
+        <v>359</v>
       </c>
       <c r="P9">
-        <v>359</v>
+        <v>772</v>
       </c>
       <c r="Q9">
-        <v>772</v>
+        <v>377</v>
       </c>
       <c r="R9">
-        <v>377</v>
+        <v>5238</v>
       </c>
       <c r="S9">
-        <v>5238</v>
+        <v>510</v>
       </c>
       <c r="T9">
-        <v>510</v>
+        <v>1479</v>
       </c>
       <c r="U9">
-        <v>1479</v>
+        <v>375</v>
       </c>
       <c r="V9">
-        <v>375</v>
+        <v>958</v>
       </c>
       <c r="W9">
-        <v>958</v>
-      </c>
-      <c r="X9">
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2319,44 +2320,44 @@
       <c r="K10" t="s">
         <v>49</v>
       </c>
+      <c r="L10">
+        <v>4535</v>
+      </c>
       <c r="M10">
-        <v>4535</v>
+        <v>440</v>
       </c>
       <c r="N10">
-        <v>440</v>
+        <v>1273</v>
       </c>
       <c r="O10">
-        <v>1273</v>
+        <v>253</v>
       </c>
       <c r="P10">
-        <v>253</v>
+        <v>876</v>
       </c>
       <c r="Q10">
-        <v>876</v>
+        <v>334</v>
       </c>
       <c r="R10">
-        <v>334</v>
+        <v>4421</v>
       </c>
       <c r="S10">
-        <v>4421</v>
+        <v>443</v>
       </c>
       <c r="T10">
-        <v>443</v>
+        <v>1305</v>
       </c>
       <c r="U10">
-        <v>1305</v>
+        <v>154</v>
       </c>
       <c r="V10">
-        <v>154</v>
+        <v>1143</v>
       </c>
       <c r="W10">
-        <v>1143</v>
-      </c>
-      <c r="X10">
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2387,44 +2388,44 @@
       <c r="K11" t="s">
         <v>53</v>
       </c>
+      <c r="L11">
+        <v>3896</v>
+      </c>
       <c r="M11">
-        <v>3896</v>
+        <v>505</v>
       </c>
       <c r="N11">
-        <v>505</v>
+        <v>1068</v>
       </c>
       <c r="O11">
-        <v>1068</v>
+        <v>284</v>
       </c>
       <c r="P11">
-        <v>284</v>
+        <v>636</v>
       </c>
       <c r="Q11">
-        <v>636</v>
+        <v>353</v>
       </c>
       <c r="R11">
-        <v>353</v>
+        <v>3946</v>
       </c>
       <c r="S11">
-        <v>3946</v>
+        <v>339</v>
       </c>
       <c r="T11">
-        <v>339</v>
+        <v>1045</v>
       </c>
       <c r="U11">
-        <v>1045</v>
+        <v>229</v>
       </c>
       <c r="V11">
-        <v>229</v>
+        <v>804</v>
       </c>
       <c r="W11">
-        <v>804</v>
-      </c>
-      <c r="X11">
         <v>423</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2455,44 +2456,44 @@
       <c r="K12" t="s">
         <v>57</v>
       </c>
+      <c r="L12">
+        <v>3850</v>
+      </c>
       <c r="M12">
-        <v>3850</v>
+        <v>336</v>
       </c>
       <c r="N12">
-        <v>336</v>
+        <v>867</v>
       </c>
       <c r="O12">
-        <v>867</v>
+        <v>205</v>
       </c>
       <c r="P12">
-        <v>205</v>
+        <v>556</v>
       </c>
       <c r="Q12">
-        <v>556</v>
+        <v>255</v>
       </c>
       <c r="R12">
-        <v>255</v>
+        <v>3414</v>
       </c>
       <c r="S12">
-        <v>3414</v>
+        <v>237</v>
       </c>
       <c r="T12">
-        <v>237</v>
+        <v>853</v>
       </c>
       <c r="U12">
-        <v>853</v>
+        <v>167</v>
       </c>
       <c r="V12">
-        <v>167</v>
+        <v>693</v>
       </c>
       <c r="W12">
-        <v>693</v>
-      </c>
-      <c r="X12">
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2523,44 +2524,44 @@
       <c r="K13" t="s">
         <v>61</v>
       </c>
+      <c r="L13">
+        <v>2729</v>
+      </c>
       <c r="M13">
-        <v>2729</v>
+        <v>327</v>
       </c>
       <c r="N13">
-        <v>327</v>
+        <v>872</v>
       </c>
       <c r="O13">
-        <v>872</v>
+        <v>169</v>
       </c>
       <c r="P13">
-        <v>169</v>
+        <v>567</v>
       </c>
       <c r="Q13">
-        <v>567</v>
+        <v>216</v>
       </c>
       <c r="R13">
-        <v>216</v>
+        <v>2739</v>
       </c>
       <c r="S13">
-        <v>2739</v>
+        <v>234</v>
       </c>
       <c r="T13">
-        <v>234</v>
+        <v>856</v>
       </c>
       <c r="U13">
-        <v>856</v>
+        <v>93</v>
       </c>
       <c r="V13">
-        <v>93</v>
+        <v>735</v>
       </c>
       <c r="W13">
-        <v>735</v>
-      </c>
-      <c r="X13">
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2591,44 +2592,44 @@
       <c r="K14" t="s">
         <v>65</v>
       </c>
+      <c r="L14">
+        <v>1705</v>
+      </c>
       <c r="M14">
-        <v>1705</v>
+        <v>272</v>
       </c>
       <c r="N14">
-        <v>272</v>
+        <v>582</v>
       </c>
       <c r="O14">
-        <v>582</v>
+        <v>153</v>
       </c>
       <c r="P14">
-        <v>153</v>
+        <v>412</v>
       </c>
       <c r="Q14">
-        <v>412</v>
+        <v>150</v>
       </c>
       <c r="R14">
-        <v>150</v>
+        <v>1723</v>
       </c>
       <c r="S14">
-        <v>1723</v>
+        <v>212</v>
       </c>
       <c r="T14">
-        <v>212</v>
+        <v>586</v>
       </c>
       <c r="U14">
-        <v>586</v>
+        <v>113</v>
       </c>
       <c r="V14">
-        <v>113</v>
+        <v>547</v>
       </c>
       <c r="W14">
-        <v>547</v>
-      </c>
-      <c r="X14">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -2659,44 +2660,44 @@
       <c r="K15" t="s">
         <v>69</v>
       </c>
+      <c r="L15">
+        <v>3912</v>
+      </c>
       <c r="M15">
-        <v>3912</v>
+        <v>561</v>
       </c>
       <c r="N15">
-        <v>561</v>
+        <v>1066</v>
       </c>
       <c r="O15">
-        <v>1066</v>
+        <v>217</v>
       </c>
       <c r="P15">
-        <v>217</v>
+        <v>696</v>
       </c>
       <c r="Q15">
-        <v>696</v>
+        <v>253</v>
       </c>
       <c r="R15">
-        <v>253</v>
+        <v>3890</v>
       </c>
       <c r="S15">
-        <v>3890</v>
+        <v>496</v>
       </c>
       <c r="T15">
-        <v>496</v>
+        <v>1094</v>
       </c>
       <c r="U15">
-        <v>1094</v>
+        <v>179</v>
       </c>
       <c r="V15">
-        <v>179</v>
+        <v>1052</v>
       </c>
       <c r="W15">
-        <v>1052</v>
-      </c>
-      <c r="X15">
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -2727,44 +2728,44 @@
       <c r="K16" t="s">
         <v>73</v>
       </c>
+      <c r="L16">
+        <v>2640</v>
+      </c>
       <c r="M16">
-        <v>2640</v>
+        <v>299</v>
       </c>
       <c r="N16">
-        <v>299</v>
+        <v>764</v>
       </c>
       <c r="O16">
-        <v>764</v>
+        <v>167</v>
       </c>
       <c r="P16">
-        <v>167</v>
+        <v>513</v>
       </c>
       <c r="Q16">
-        <v>513</v>
+        <v>198</v>
       </c>
       <c r="R16">
-        <v>198</v>
+        <v>2401</v>
       </c>
       <c r="S16">
-        <v>2401</v>
+        <v>319</v>
       </c>
       <c r="T16">
-        <v>319</v>
+        <v>816</v>
       </c>
       <c r="U16">
-        <v>816</v>
+        <v>101</v>
       </c>
       <c r="V16">
-        <v>101</v>
+        <v>698</v>
       </c>
       <c r="W16">
-        <v>698</v>
-      </c>
-      <c r="X16">
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -2795,44 +2796,44 @@
       <c r="K17" t="s">
         <v>77</v>
       </c>
+      <c r="L17">
+        <v>3785</v>
+      </c>
       <c r="M17">
-        <v>3785</v>
+        <v>440</v>
       </c>
       <c r="N17">
-        <v>440</v>
+        <v>1031</v>
       </c>
       <c r="O17">
-        <v>1031</v>
+        <v>116</v>
       </c>
       <c r="P17">
-        <v>116</v>
+        <v>602</v>
       </c>
       <c r="Q17">
-        <v>602</v>
+        <v>267</v>
       </c>
       <c r="R17">
-        <v>267</v>
+        <v>3794</v>
       </c>
       <c r="S17">
-        <v>3794</v>
+        <v>318</v>
       </c>
       <c r="T17">
-        <v>318</v>
+        <v>978</v>
       </c>
       <c r="U17">
-        <v>978</v>
+        <v>171</v>
       </c>
       <c r="V17">
-        <v>171</v>
+        <v>771</v>
       </c>
       <c r="W17">
-        <v>771</v>
-      </c>
-      <c r="X17">
         <v>336</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -2863,44 +2864,44 @@
       <c r="K18" t="s">
         <v>81</v>
       </c>
+      <c r="L18">
+        <v>8195</v>
+      </c>
       <c r="M18">
-        <v>8195</v>
+        <v>1137</v>
       </c>
       <c r="N18">
-        <v>1137</v>
+        <v>2511</v>
       </c>
       <c r="O18">
-        <v>2511</v>
+        <v>612</v>
       </c>
       <c r="P18">
-        <v>612</v>
+        <v>1463</v>
       </c>
       <c r="Q18">
-        <v>1463</v>
+        <v>581</v>
       </c>
       <c r="R18">
-        <v>581</v>
+        <v>8303</v>
       </c>
       <c r="S18">
-        <v>8303</v>
+        <v>1107</v>
       </c>
       <c r="T18">
-        <v>1107</v>
+        <v>2728</v>
       </c>
       <c r="U18">
-        <v>2728</v>
+        <v>528</v>
       </c>
       <c r="V18">
-        <v>528</v>
+        <v>2176</v>
       </c>
       <c r="W18">
-        <v>2176</v>
-      </c>
-      <c r="X18">
         <v>1051</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -2931,44 +2932,44 @@
       <c r="K19" t="s">
         <v>85</v>
       </c>
+      <c r="L19">
+        <v>2335</v>
+      </c>
       <c r="M19">
-        <v>2335</v>
+        <v>216</v>
       </c>
       <c r="N19">
-        <v>216</v>
+        <v>696</v>
       </c>
       <c r="O19">
-        <v>696</v>
+        <v>164</v>
       </c>
       <c r="P19">
-        <v>164</v>
+        <v>478</v>
       </c>
       <c r="Q19">
-        <v>478</v>
+        <v>159</v>
       </c>
       <c r="R19">
-        <v>159</v>
+        <v>2012</v>
       </c>
       <c r="S19">
-        <v>2012</v>
+        <v>266</v>
       </c>
       <c r="T19">
-        <v>266</v>
+        <v>670</v>
       </c>
       <c r="U19">
-        <v>670</v>
+        <v>78</v>
       </c>
       <c r="V19">
-        <v>78</v>
+        <v>697</v>
       </c>
       <c r="W19">
-        <v>697</v>
-      </c>
-      <c r="X19">
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -2999,44 +3000,44 @@
       <c r="K20" t="s">
         <v>89</v>
       </c>
+      <c r="L20">
+        <v>2408</v>
+      </c>
       <c r="M20">
-        <v>2408</v>
+        <v>382</v>
       </c>
       <c r="N20">
-        <v>382</v>
+        <v>699</v>
       </c>
       <c r="O20">
-        <v>699</v>
+        <v>158</v>
       </c>
       <c r="P20">
-        <v>158</v>
+        <v>415</v>
       </c>
       <c r="Q20">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="R20">
-        <v>187</v>
+        <v>2171</v>
       </c>
       <c r="S20">
-        <v>2171</v>
+        <v>224</v>
       </c>
       <c r="T20">
-        <v>224</v>
+        <v>688</v>
       </c>
       <c r="U20">
-        <v>688</v>
+        <v>134</v>
       </c>
       <c r="V20">
-        <v>134</v>
+        <v>556</v>
       </c>
       <c r="W20">
-        <v>556</v>
-      </c>
-      <c r="X20">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>90</v>
       </c>
@@ -3067,44 +3068,44 @@
       <c r="K21" t="s">
         <v>93</v>
       </c>
+      <c r="L21">
+        <v>1939</v>
+      </c>
       <c r="M21">
-        <v>1939</v>
+        <v>511</v>
       </c>
       <c r="N21">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="O21">
-        <v>545</v>
+        <v>89</v>
       </c>
       <c r="P21">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="Q21">
-        <v>274</v>
+        <v>123</v>
       </c>
       <c r="R21">
-        <v>123</v>
+        <v>1668</v>
       </c>
       <c r="S21">
-        <v>1668</v>
+        <v>156</v>
       </c>
       <c r="T21">
-        <v>156</v>
+        <v>482</v>
       </c>
       <c r="U21">
-        <v>482</v>
+        <v>142</v>
       </c>
       <c r="V21">
-        <v>142</v>
+        <v>409</v>
       </c>
       <c r="W21">
-        <v>409</v>
-      </c>
-      <c r="X21">
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -3135,44 +3136,44 @@
       <c r="K22" t="s">
         <v>97</v>
       </c>
+      <c r="L22">
+        <v>3014</v>
+      </c>
       <c r="M22">
-        <v>3014</v>
+        <v>326</v>
       </c>
       <c r="N22">
-        <v>326</v>
+        <v>892</v>
       </c>
       <c r="O22">
-        <v>892</v>
+        <v>197</v>
       </c>
       <c r="P22">
-        <v>197</v>
+        <v>625</v>
       </c>
       <c r="Q22">
-        <v>625</v>
+        <v>245</v>
       </c>
       <c r="R22">
-        <v>245</v>
+        <v>3004</v>
       </c>
       <c r="S22">
-        <v>3004</v>
+        <v>607</v>
       </c>
       <c r="T22">
-        <v>607</v>
+        <v>945</v>
       </c>
       <c r="U22">
-        <v>945</v>
+        <v>142</v>
       </c>
       <c r="V22">
-        <v>142</v>
+        <v>830</v>
       </c>
       <c r="W22">
-        <v>830</v>
-      </c>
-      <c r="X22">
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -3203,44 +3204,44 @@
       <c r="K23" t="s">
         <v>101</v>
       </c>
+      <c r="L23">
+        <v>3364</v>
+      </c>
       <c r="M23">
-        <v>3364</v>
+        <v>475</v>
       </c>
       <c r="N23">
-        <v>475</v>
+        <v>1118</v>
       </c>
       <c r="O23">
-        <v>1118</v>
+        <v>377</v>
       </c>
       <c r="P23">
-        <v>377</v>
+        <v>739</v>
       </c>
       <c r="Q23">
-        <v>739</v>
+        <v>324</v>
       </c>
       <c r="R23">
-        <v>324</v>
+        <v>3166</v>
       </c>
       <c r="S23">
-        <v>3166</v>
+        <v>469</v>
       </c>
       <c r="T23">
-        <v>469</v>
+        <v>1083</v>
       </c>
       <c r="U23">
-        <v>1083</v>
+        <v>145</v>
       </c>
       <c r="V23">
-        <v>145</v>
+        <v>948</v>
       </c>
       <c r="W23">
-        <v>948</v>
-      </c>
-      <c r="X23">
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -3271,44 +3272,44 @@
       <c r="K24" t="s">
         <v>105</v>
       </c>
+      <c r="L24">
+        <v>9242</v>
+      </c>
       <c r="M24">
-        <v>9242</v>
+        <v>1143</v>
       </c>
       <c r="N24">
-        <v>1143</v>
+        <v>2502</v>
       </c>
       <c r="O24">
-        <v>2502</v>
+        <v>650</v>
       </c>
       <c r="P24">
-        <v>650</v>
+        <v>1626</v>
       </c>
       <c r="Q24">
-        <v>1626</v>
+        <v>567</v>
       </c>
       <c r="R24">
-        <v>567</v>
+        <v>8933</v>
       </c>
       <c r="S24">
-        <v>8933</v>
+        <v>1112</v>
       </c>
       <c r="T24">
-        <v>1112</v>
+        <v>2584</v>
       </c>
       <c r="U24">
-        <v>2584</v>
+        <v>435</v>
       </c>
       <c r="V24">
-        <v>435</v>
+        <v>2027</v>
       </c>
       <c r="W24">
-        <v>2027</v>
-      </c>
-      <c r="X24">
         <v>946</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -3339,44 +3340,44 @@
       <c r="K25" t="s">
         <v>109</v>
       </c>
+      <c r="L25">
+        <v>2753</v>
+      </c>
       <c r="M25">
-        <v>2753</v>
+        <v>411</v>
       </c>
       <c r="N25">
-        <v>411</v>
+        <v>777</v>
       </c>
       <c r="O25">
-        <v>777</v>
+        <v>288</v>
       </c>
       <c r="P25">
-        <v>288</v>
+        <v>501</v>
       </c>
       <c r="Q25">
-        <v>501</v>
+        <v>248</v>
       </c>
       <c r="R25">
-        <v>248</v>
+        <v>3103</v>
       </c>
       <c r="S25">
-        <v>3103</v>
+        <v>486</v>
       </c>
       <c r="T25">
-        <v>486</v>
+        <v>708</v>
       </c>
       <c r="U25">
-        <v>708</v>
+        <v>216</v>
       </c>
       <c r="V25">
-        <v>216</v>
+        <v>690</v>
       </c>
       <c r="W25">
-        <v>690</v>
-      </c>
-      <c r="X25">
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -3407,44 +3408,44 @@
       <c r="K26" t="s">
         <v>113</v>
       </c>
+      <c r="L26">
+        <v>18966</v>
+      </c>
       <c r="M26">
-        <v>18966</v>
+        <v>1500</v>
       </c>
       <c r="N26">
-        <v>1500</v>
+        <v>3099</v>
       </c>
       <c r="O26">
-        <v>3099</v>
+        <v>761</v>
       </c>
       <c r="P26">
-        <v>761</v>
+        <v>1782</v>
       </c>
       <c r="Q26">
-        <v>1782</v>
+        <v>771</v>
       </c>
       <c r="R26">
-        <v>771</v>
+        <v>18854</v>
       </c>
       <c r="S26">
-        <v>18854</v>
+        <v>1138</v>
       </c>
       <c r="T26">
-        <v>1138</v>
+        <v>3631</v>
       </c>
       <c r="U26">
-        <v>3631</v>
+        <v>801</v>
       </c>
       <c r="V26">
-        <v>801</v>
+        <v>2551</v>
       </c>
       <c r="W26">
-        <v>2551</v>
-      </c>
-      <c r="X26">
         <v>1149</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -3475,44 +3476,44 @@
       <c r="K27" t="s">
         <v>117</v>
       </c>
+      <c r="L27">
+        <v>1587</v>
+      </c>
       <c r="M27">
-        <v>1587</v>
+        <v>121</v>
       </c>
       <c r="N27">
-        <v>121</v>
+        <v>407</v>
       </c>
       <c r="O27">
-        <v>407</v>
+        <v>105</v>
       </c>
       <c r="P27">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="Q27">
-        <v>280</v>
+        <v>118</v>
       </c>
       <c r="R27">
-        <v>118</v>
+        <v>1491</v>
       </c>
       <c r="S27">
-        <v>1491</v>
+        <v>188</v>
       </c>
       <c r="T27">
-        <v>188</v>
+        <v>418</v>
       </c>
       <c r="U27">
-        <v>418</v>
+        <v>83</v>
       </c>
       <c r="V27">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="W27">
-        <v>385</v>
-      </c>
-      <c r="X27">
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -3543,44 +3544,44 @@
       <c r="K28" t="s">
         <v>121</v>
       </c>
+      <c r="L28">
+        <v>1192</v>
+      </c>
       <c r="M28">
-        <v>1192</v>
+        <v>190</v>
       </c>
       <c r="N28">
-        <v>190</v>
+        <v>403</v>
       </c>
       <c r="O28">
-        <v>403</v>
+        <v>121</v>
       </c>
       <c r="P28">
-        <v>121</v>
+        <v>268</v>
       </c>
       <c r="Q28">
-        <v>268</v>
+        <v>95</v>
       </c>
       <c r="R28">
-        <v>95</v>
+        <v>1189</v>
       </c>
       <c r="S28">
-        <v>1189</v>
+        <v>178</v>
       </c>
       <c r="T28">
-        <v>178</v>
+        <v>415</v>
       </c>
       <c r="U28">
-        <v>415</v>
+        <v>88</v>
       </c>
       <c r="V28">
-        <v>88</v>
+        <v>382</v>
       </c>
       <c r="W28">
-        <v>382</v>
-      </c>
-      <c r="X28">
         <v>186</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -3611,44 +3612,44 @@
       <c r="K29" t="s">
         <v>125</v>
       </c>
+      <c r="L29">
+        <v>3602</v>
+      </c>
       <c r="M29">
-        <v>3602</v>
+        <v>341</v>
       </c>
       <c r="N29">
-        <v>341</v>
+        <v>956</v>
       </c>
       <c r="O29">
-        <v>956</v>
+        <v>269</v>
       </c>
       <c r="P29">
-        <v>269</v>
+        <v>643</v>
       </c>
       <c r="Q29">
-        <v>643</v>
+        <v>267</v>
       </c>
       <c r="R29">
-        <v>267</v>
+        <v>3441</v>
       </c>
       <c r="S29">
-        <v>3441</v>
+        <v>299</v>
       </c>
       <c r="T29">
-        <v>299</v>
+        <v>929</v>
       </c>
       <c r="U29">
-        <v>929</v>
+        <v>214</v>
       </c>
       <c r="V29">
-        <v>214</v>
+        <v>752</v>
       </c>
       <c r="W29">
-        <v>752</v>
-      </c>
-      <c r="X29">
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -3679,44 +3680,44 @@
       <c r="K30" t="s">
         <v>129</v>
       </c>
+      <c r="L30">
+        <v>7212</v>
+      </c>
       <c r="M30">
-        <v>7212</v>
+        <v>852</v>
       </c>
       <c r="N30">
-        <v>852</v>
+        <v>2321</v>
       </c>
       <c r="O30">
-        <v>2321</v>
+        <v>712</v>
       </c>
       <c r="P30">
-        <v>712</v>
+        <v>1322</v>
       </c>
       <c r="Q30">
-        <v>1322</v>
+        <v>793</v>
       </c>
       <c r="R30">
-        <v>793</v>
+        <v>7591</v>
       </c>
       <c r="S30">
-        <v>7591</v>
+        <v>1344</v>
       </c>
       <c r="T30">
-        <v>1344</v>
+        <v>2286</v>
       </c>
       <c r="U30">
-        <v>2286</v>
+        <v>513</v>
       </c>
       <c r="V30">
-        <v>513</v>
+        <v>1884</v>
       </c>
       <c r="W30">
-        <v>1884</v>
-      </c>
-      <c r="X30">
         <v>925</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>130</v>
       </c>
@@ -3747,44 +3748,44 @@
       <c r="K31" t="s">
         <v>133</v>
       </c>
+      <c r="L31">
+        <v>3330</v>
+      </c>
       <c r="M31">
-        <v>3330</v>
+        <v>561</v>
       </c>
       <c r="N31">
-        <v>561</v>
+        <v>1278</v>
       </c>
       <c r="O31">
-        <v>1278</v>
+        <v>318</v>
       </c>
       <c r="P31">
-        <v>318</v>
+        <v>769</v>
       </c>
       <c r="Q31">
-        <v>769</v>
+        <v>373</v>
       </c>
       <c r="R31">
-        <v>373</v>
+        <v>3341</v>
       </c>
       <c r="S31">
-        <v>3341</v>
+        <v>375</v>
       </c>
       <c r="T31">
-        <v>375</v>
+        <v>1366</v>
       </c>
       <c r="U31">
-        <v>1366</v>
+        <v>230</v>
       </c>
       <c r="V31">
-        <v>230</v>
+        <v>1023</v>
       </c>
       <c r="W31">
-        <v>1023</v>
-      </c>
-      <c r="X31">
         <v>506</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -3815,44 +3816,44 @@
       <c r="K32" t="s">
         <v>137</v>
       </c>
+      <c r="L32">
+        <v>18222</v>
+      </c>
       <c r="M32">
-        <v>18222</v>
+        <v>1832</v>
       </c>
       <c r="N32">
-        <v>1832</v>
+        <v>4763</v>
       </c>
       <c r="O32">
-        <v>4763</v>
+        <v>983</v>
       </c>
       <c r="P32">
-        <v>983</v>
+        <v>2809</v>
       </c>
       <c r="Q32">
-        <v>2809</v>
+        <v>1137</v>
       </c>
       <c r="R32">
-        <v>1137</v>
+        <v>17902</v>
       </c>
       <c r="S32">
-        <v>17902</v>
+        <v>1848</v>
       </c>
       <c r="T32">
-        <v>1848</v>
+        <v>4983</v>
       </c>
       <c r="U32">
-        <v>4983</v>
+        <v>919</v>
       </c>
       <c r="V32">
-        <v>919</v>
+        <v>4455</v>
       </c>
       <c r="W32">
-        <v>4455</v>
-      </c>
-      <c r="X32">
         <v>1850</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -3883,44 +3884,44 @@
       <c r="K33" t="s">
         <v>141</v>
       </c>
+      <c r="L33">
+        <v>1813</v>
+      </c>
       <c r="M33">
-        <v>1813</v>
+        <v>338</v>
       </c>
       <c r="N33">
-        <v>338</v>
+        <v>563</v>
       </c>
       <c r="O33">
-        <v>563</v>
+        <v>198</v>
       </c>
       <c r="P33">
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="Q33">
-        <v>342</v>
+        <v>183</v>
       </c>
       <c r="R33">
-        <v>183</v>
+        <v>1666</v>
       </c>
       <c r="S33">
-        <v>1666</v>
+        <v>130</v>
       </c>
       <c r="T33">
-        <v>130</v>
+        <v>643</v>
       </c>
       <c r="U33">
-        <v>643</v>
+        <v>261</v>
       </c>
       <c r="V33">
-        <v>261</v>
+        <v>429</v>
       </c>
       <c r="W33">
-        <v>429</v>
-      </c>
-      <c r="X33">
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -3951,44 +3952,44 @@
       <c r="K34" t="s">
         <v>145</v>
       </c>
+      <c r="L34">
+        <v>3788</v>
+      </c>
       <c r="M34">
-        <v>3788</v>
+        <v>694</v>
       </c>
       <c r="N34">
-        <v>694</v>
+        <v>1092</v>
       </c>
       <c r="O34">
-        <v>1092</v>
+        <v>263</v>
       </c>
       <c r="P34">
-        <v>263</v>
+        <v>664</v>
       </c>
       <c r="Q34">
-        <v>664</v>
+        <v>349</v>
       </c>
       <c r="R34">
-        <v>349</v>
+        <v>3527</v>
       </c>
       <c r="S34">
-        <v>3527</v>
+        <v>560</v>
       </c>
       <c r="T34">
-        <v>560</v>
+        <v>1116</v>
       </c>
       <c r="U34">
-        <v>1116</v>
+        <v>330</v>
       </c>
       <c r="V34">
-        <v>330</v>
+        <v>1020</v>
       </c>
       <c r="W34">
-        <v>1020</v>
-      </c>
-      <c r="X34">
         <v>543</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -4019,44 +4020,44 @@
       <c r="K35" t="s">
         <v>149</v>
       </c>
+      <c r="L35">
+        <v>3035</v>
+      </c>
       <c r="M35">
-        <v>3035</v>
+        <v>289</v>
       </c>
       <c r="N35">
-        <v>289</v>
+        <v>849</v>
       </c>
       <c r="O35">
-        <v>849</v>
+        <v>228</v>
       </c>
       <c r="P35">
-        <v>228</v>
+        <v>607</v>
       </c>
       <c r="Q35">
-        <v>607</v>
+        <v>288</v>
       </c>
       <c r="R35">
-        <v>288</v>
+        <v>2866</v>
       </c>
       <c r="S35">
-        <v>2866</v>
+        <v>390</v>
       </c>
       <c r="T35">
-        <v>390</v>
+        <v>1028</v>
       </c>
       <c r="U35">
-        <v>1028</v>
+        <v>112</v>
       </c>
       <c r="V35">
-        <v>112</v>
+        <v>785</v>
       </c>
       <c r="W35">
-        <v>785</v>
-      </c>
-      <c r="X35">
         <v>473</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -4087,44 +4088,44 @@
       <c r="K36" t="s">
         <v>153</v>
       </c>
+      <c r="L36">
+        <v>1952</v>
+      </c>
       <c r="M36">
-        <v>1952</v>
+        <v>217</v>
       </c>
       <c r="N36">
-        <v>217</v>
+        <v>569</v>
       </c>
       <c r="O36">
-        <v>569</v>
+        <v>96</v>
       </c>
       <c r="P36">
-        <v>96</v>
+        <v>421</v>
       </c>
       <c r="Q36">
-        <v>421</v>
+        <v>181</v>
       </c>
       <c r="R36">
-        <v>181</v>
+        <v>1821</v>
       </c>
       <c r="S36">
-        <v>1821</v>
+        <v>89</v>
       </c>
       <c r="T36">
-        <v>89</v>
+        <v>557</v>
       </c>
       <c r="U36">
-        <v>557</v>
+        <v>55</v>
       </c>
       <c r="V36">
-        <v>55</v>
+        <v>470</v>
       </c>
       <c r="W36">
-        <v>470</v>
-      </c>
-      <c r="X36">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>154</v>
       </c>
@@ -4155,44 +4156,44 @@
       <c r="K37" t="s">
         <v>157</v>
       </c>
+      <c r="L37">
+        <v>1340</v>
+      </c>
       <c r="M37">
-        <v>1340</v>
+        <v>207</v>
       </c>
       <c r="N37">
-        <v>207</v>
+        <v>431</v>
       </c>
       <c r="O37">
-        <v>431</v>
+        <v>110</v>
       </c>
       <c r="P37">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="Q37">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="R37">
-        <v>130</v>
+        <v>1291</v>
       </c>
       <c r="S37">
-        <v>1291</v>
+        <v>203</v>
       </c>
       <c r="T37">
-        <v>203</v>
+        <v>408</v>
       </c>
       <c r="U37">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="V37">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="W37">
-        <v>324</v>
-      </c>
-      <c r="X37">
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>158</v>
       </c>
@@ -4223,44 +4224,44 @@
       <c r="K38" t="s">
         <v>161</v>
       </c>
+      <c r="L38">
+        <v>1648</v>
+      </c>
       <c r="M38">
-        <v>1648</v>
+        <v>238</v>
       </c>
       <c r="N38">
-        <v>238</v>
+        <v>518</v>
       </c>
       <c r="O38">
-        <v>518</v>
+        <v>126</v>
       </c>
       <c r="P38">
-        <v>126</v>
+        <v>350</v>
       </c>
       <c r="Q38">
-        <v>350</v>
+        <v>120</v>
       </c>
       <c r="R38">
-        <v>120</v>
+        <v>1652</v>
       </c>
       <c r="S38">
-        <v>1652</v>
+        <v>235</v>
       </c>
       <c r="T38">
-        <v>235</v>
+        <v>576</v>
       </c>
       <c r="U38">
-        <v>576</v>
+        <v>207</v>
       </c>
       <c r="V38">
-        <v>207</v>
+        <v>487</v>
       </c>
       <c r="W38">
-        <v>487</v>
-      </c>
-      <c r="X38">
         <v>247</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -4291,44 +4292,44 @@
       <c r="K39" t="s">
         <v>165</v>
       </c>
+      <c r="L39">
+        <v>2425</v>
+      </c>
       <c r="M39">
-        <v>2425</v>
+        <v>156</v>
       </c>
       <c r="N39">
-        <v>156</v>
+        <v>654</v>
       </c>
       <c r="O39">
-        <v>654</v>
+        <v>125</v>
       </c>
       <c r="P39">
-        <v>125</v>
+        <v>473</v>
       </c>
       <c r="Q39">
-        <v>473</v>
+        <v>206</v>
       </c>
       <c r="R39">
-        <v>206</v>
+        <v>2267</v>
       </c>
       <c r="S39">
-        <v>2267</v>
+        <v>195</v>
       </c>
       <c r="T39">
-        <v>195</v>
+        <v>689</v>
       </c>
       <c r="U39">
-        <v>689</v>
+        <v>73</v>
       </c>
       <c r="V39">
-        <v>73</v>
+        <v>616</v>
       </c>
       <c r="W39">
-        <v>616</v>
-      </c>
-      <c r="X39">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -4359,44 +4360,44 @@
       <c r="K40" t="s">
         <v>169</v>
       </c>
+      <c r="L40">
+        <v>2146</v>
+      </c>
       <c r="M40">
-        <v>2146</v>
+        <v>224</v>
       </c>
       <c r="N40">
-        <v>224</v>
+        <v>684</v>
       </c>
       <c r="O40">
-        <v>684</v>
+        <v>147</v>
       </c>
       <c r="P40">
-        <v>147</v>
+        <v>415</v>
       </c>
       <c r="Q40">
-        <v>415</v>
+        <v>151</v>
       </c>
       <c r="R40">
-        <v>151</v>
+        <v>2056</v>
       </c>
       <c r="S40">
-        <v>2056</v>
+        <v>148</v>
       </c>
       <c r="T40">
-        <v>148</v>
+        <v>650</v>
       </c>
       <c r="U40">
-        <v>650</v>
+        <v>126</v>
       </c>
       <c r="V40">
-        <v>126</v>
+        <v>552</v>
       </c>
       <c r="W40">
-        <v>552</v>
-      </c>
-      <c r="X40">
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>170</v>
       </c>
@@ -4427,44 +4428,44 @@
       <c r="K41" t="s">
         <v>173</v>
       </c>
+      <c r="L41">
+        <v>3017</v>
+      </c>
       <c r="M41">
-        <v>3017</v>
+        <v>448</v>
       </c>
       <c r="N41">
-        <v>448</v>
+        <v>873</v>
       </c>
       <c r="O41">
-        <v>873</v>
+        <v>142</v>
       </c>
       <c r="P41">
-        <v>142</v>
+        <v>518</v>
       </c>
       <c r="Q41">
-        <v>518</v>
+        <v>177</v>
       </c>
       <c r="R41">
-        <v>177</v>
+        <v>2793</v>
       </c>
       <c r="S41">
-        <v>2793</v>
+        <v>299</v>
       </c>
       <c r="T41">
-        <v>299</v>
+        <v>819</v>
       </c>
       <c r="U41">
-        <v>819</v>
+        <v>206</v>
       </c>
       <c r="V41">
-        <v>206</v>
+        <v>811</v>
       </c>
       <c r="W41">
-        <v>811</v>
-      </c>
-      <c r="X41">
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -4495,44 +4496,44 @@
       <c r="K42" t="s">
         <v>177</v>
       </c>
+      <c r="L42">
+        <v>2119</v>
+      </c>
       <c r="M42">
-        <v>2119</v>
+        <v>269</v>
       </c>
       <c r="N42">
-        <v>269</v>
+        <v>673</v>
       </c>
       <c r="O42">
-        <v>673</v>
+        <v>190</v>
       </c>
       <c r="P42">
-        <v>190</v>
+        <v>408</v>
       </c>
       <c r="Q42">
-        <v>408</v>
+        <v>161</v>
       </c>
       <c r="R42">
-        <v>161</v>
+        <v>2042</v>
       </c>
       <c r="S42">
-        <v>2042</v>
+        <v>272</v>
       </c>
       <c r="T42">
-        <v>272</v>
+        <v>632</v>
       </c>
       <c r="U42">
-        <v>632</v>
+        <v>60</v>
       </c>
       <c r="V42">
-        <v>60</v>
+        <v>562</v>
       </c>
       <c r="W42">
-        <v>562</v>
-      </c>
-      <c r="X42">
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -4563,44 +4564,44 @@
       <c r="K43" t="s">
         <v>181</v>
       </c>
+      <c r="L43">
+        <v>3390</v>
+      </c>
       <c r="M43">
-        <v>3390</v>
+        <v>364</v>
       </c>
       <c r="N43">
-        <v>364</v>
+        <v>978</v>
       </c>
       <c r="O43">
-        <v>978</v>
+        <v>194</v>
       </c>
       <c r="P43">
-        <v>194</v>
+        <v>616</v>
       </c>
       <c r="Q43">
-        <v>616</v>
+        <v>286</v>
       </c>
       <c r="R43">
-        <v>286</v>
+        <v>3267</v>
       </c>
       <c r="S43">
-        <v>3267</v>
+        <v>410</v>
       </c>
       <c r="T43">
-        <v>410</v>
+        <v>971</v>
       </c>
       <c r="U43">
-        <v>971</v>
+        <v>173</v>
       </c>
       <c r="V43">
-        <v>173</v>
+        <v>956</v>
       </c>
       <c r="W43">
-        <v>956</v>
-      </c>
-      <c r="X43">
         <v>314</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>182</v>
       </c>
@@ -4631,44 +4632,44 @@
       <c r="K44" t="s">
         <v>185</v>
       </c>
+      <c r="L44">
+        <v>2941</v>
+      </c>
       <c r="M44">
-        <v>2941</v>
+        <v>322</v>
       </c>
       <c r="N44">
-        <v>322</v>
+        <v>796</v>
       </c>
       <c r="O44">
-        <v>796</v>
+        <v>177</v>
       </c>
       <c r="P44">
-        <v>177</v>
+        <v>462</v>
       </c>
       <c r="Q44">
-        <v>462</v>
+        <v>203</v>
       </c>
       <c r="R44">
-        <v>203</v>
+        <v>2860</v>
       </c>
       <c r="S44">
-        <v>2860</v>
+        <v>307</v>
       </c>
       <c r="T44">
-        <v>307</v>
+        <v>752</v>
       </c>
       <c r="U44">
-        <v>752</v>
+        <v>189</v>
       </c>
       <c r="V44">
-        <v>189</v>
+        <v>592</v>
       </c>
       <c r="W44">
-        <v>592</v>
-      </c>
-      <c r="X44">
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>186</v>
       </c>
@@ -4699,44 +4700,44 @@
       <c r="K45" t="s">
         <v>189</v>
       </c>
+      <c r="L45">
+        <v>3619</v>
+      </c>
       <c r="M45">
-        <v>3619</v>
+        <v>539</v>
       </c>
       <c r="N45">
-        <v>539</v>
+        <v>1023</v>
       </c>
       <c r="O45">
-        <v>1023</v>
+        <v>226</v>
       </c>
       <c r="P45">
-        <v>226</v>
+        <v>615</v>
       </c>
       <c r="Q45">
-        <v>615</v>
+        <v>321</v>
       </c>
       <c r="R45">
-        <v>321</v>
+        <v>3685</v>
       </c>
       <c r="S45">
-        <v>3685</v>
+        <v>584</v>
       </c>
       <c r="T45">
-        <v>584</v>
+        <v>1120</v>
       </c>
       <c r="U45">
-        <v>1120</v>
+        <v>278</v>
       </c>
       <c r="V45">
-        <v>278</v>
+        <v>870</v>
       </c>
       <c r="W45">
-        <v>870</v>
-      </c>
-      <c r="X45">
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>190</v>
       </c>
@@ -4767,44 +4768,44 @@
       <c r="K46" t="s">
         <v>193</v>
       </c>
+      <c r="L46">
+        <v>1784</v>
+      </c>
       <c r="M46">
-        <v>1784</v>
+        <v>138</v>
       </c>
       <c r="N46">
-        <v>138</v>
+        <v>521</v>
       </c>
       <c r="O46">
-        <v>521</v>
+        <v>102</v>
       </c>
       <c r="P46">
-        <v>102</v>
+        <v>337</v>
       </c>
       <c r="Q46">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="R46">
-        <v>167</v>
+        <v>1695</v>
       </c>
       <c r="S46">
-        <v>1695</v>
+        <v>126</v>
       </c>
       <c r="T46">
-        <v>126</v>
+        <v>515</v>
       </c>
       <c r="U46">
-        <v>515</v>
+        <v>87</v>
       </c>
       <c r="V46">
-        <v>87</v>
+        <v>412</v>
       </c>
       <c r="W46">
-        <v>412</v>
-      </c>
-      <c r="X46">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>194</v>
       </c>
@@ -4835,44 +4836,44 @@
       <c r="K47" t="s">
         <v>197</v>
       </c>
+      <c r="L47">
+        <v>1917</v>
+      </c>
       <c r="M47">
-        <v>1917</v>
+        <v>338</v>
       </c>
       <c r="N47">
-        <v>338</v>
+        <v>526</v>
       </c>
       <c r="O47">
-        <v>526</v>
+        <v>163</v>
       </c>
       <c r="P47">
-        <v>163</v>
+        <v>367</v>
       </c>
       <c r="Q47">
-        <v>367</v>
+        <v>127</v>
       </c>
       <c r="R47">
-        <v>127</v>
+        <v>1826</v>
       </c>
       <c r="S47">
-        <v>1826</v>
+        <v>294</v>
       </c>
       <c r="T47">
-        <v>294</v>
+        <v>507</v>
       </c>
       <c r="U47">
-        <v>507</v>
+        <v>88</v>
       </c>
       <c r="V47">
-        <v>88</v>
+        <v>515</v>
       </c>
       <c r="W47">
-        <v>515</v>
-      </c>
-      <c r="X47">
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>198</v>
       </c>
@@ -4903,44 +4904,44 @@
       <c r="K48" t="s">
         <v>201</v>
       </c>
+      <c r="L48">
+        <v>1302</v>
+      </c>
       <c r="M48">
-        <v>1302</v>
+        <v>132</v>
       </c>
       <c r="N48">
-        <v>132</v>
+        <v>383</v>
       </c>
       <c r="O48">
-        <v>383</v>
+        <v>105</v>
       </c>
       <c r="P48">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="Q48">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="R48">
-        <v>130</v>
+        <v>1238</v>
       </c>
       <c r="S48">
-        <v>1238</v>
+        <v>165</v>
       </c>
       <c r="T48">
-        <v>165</v>
+        <v>389</v>
       </c>
       <c r="U48">
-        <v>389</v>
+        <v>51</v>
       </c>
       <c r="V48">
-        <v>51</v>
+        <v>345</v>
       </c>
       <c r="W48">
-        <v>345</v>
-      </c>
-      <c r="X48">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>202</v>
       </c>
@@ -4971,44 +4972,44 @@
       <c r="K49" t="s">
         <v>205</v>
       </c>
+      <c r="L49">
+        <v>3436</v>
+      </c>
       <c r="M49">
-        <v>3436</v>
+        <v>412</v>
       </c>
       <c r="N49">
-        <v>412</v>
+        <v>847</v>
       </c>
       <c r="O49">
-        <v>847</v>
+        <v>249</v>
       </c>
       <c r="P49">
-        <v>249</v>
+        <v>554</v>
       </c>
       <c r="Q49">
-        <v>554</v>
+        <v>205</v>
       </c>
       <c r="R49">
-        <v>205</v>
+        <v>3266</v>
       </c>
       <c r="S49">
-        <v>3266</v>
+        <v>312</v>
       </c>
       <c r="T49">
-        <v>312</v>
+        <v>812</v>
       </c>
       <c r="U49">
-        <v>812</v>
+        <v>220</v>
       </c>
       <c r="V49">
-        <v>220</v>
+        <v>747</v>
       </c>
       <c r="W49">
-        <v>747</v>
-      </c>
-      <c r="X49">
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>206</v>
       </c>
@@ -5039,44 +5040,44 @@
       <c r="K50" t="s">
         <v>209</v>
       </c>
+      <c r="L50">
+        <v>3946</v>
+      </c>
       <c r="M50">
-        <v>3946</v>
+        <v>480</v>
       </c>
       <c r="N50">
-        <v>480</v>
+        <v>1154</v>
       </c>
       <c r="O50">
-        <v>1154</v>
+        <v>223</v>
       </c>
       <c r="P50">
-        <v>223</v>
+        <v>713</v>
       </c>
       <c r="Q50">
-        <v>713</v>
+        <v>360</v>
       </c>
       <c r="R50">
-        <v>360</v>
+        <v>3739</v>
       </c>
       <c r="S50">
-        <v>3739</v>
+        <v>379</v>
       </c>
       <c r="T50">
-        <v>379</v>
+        <v>1170</v>
       </c>
       <c r="U50">
-        <v>1170</v>
+        <v>213</v>
       </c>
       <c r="V50">
-        <v>213</v>
+        <v>892</v>
       </c>
       <c r="W50">
-        <v>892</v>
-      </c>
-      <c r="X50">
         <v>359</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>210</v>
       </c>
@@ -5107,44 +5108,44 @@
       <c r="K51" t="s">
         <v>213</v>
       </c>
+      <c r="L51">
+        <v>7153</v>
+      </c>
       <c r="M51">
-        <v>7153</v>
+        <v>947</v>
       </c>
       <c r="N51">
-        <v>947</v>
+        <v>1843</v>
       </c>
       <c r="O51">
-        <v>1843</v>
+        <v>635</v>
       </c>
       <c r="P51">
-        <v>635</v>
+        <v>1271</v>
       </c>
       <c r="Q51">
-        <v>1271</v>
+        <v>527</v>
       </c>
       <c r="R51">
-        <v>527</v>
+        <v>6995</v>
       </c>
       <c r="S51">
-        <v>6995</v>
+        <v>730</v>
       </c>
       <c r="T51">
-        <v>730</v>
+        <v>1971</v>
       </c>
       <c r="U51">
-        <v>1971</v>
+        <v>437</v>
       </c>
       <c r="V51">
-        <v>437</v>
+        <v>1694</v>
       </c>
       <c r="W51">
-        <v>1694</v>
-      </c>
-      <c r="X51">
         <v>677</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>214</v>
       </c>
@@ -5175,44 +5176,44 @@
       <c r="K52" t="s">
         <v>217</v>
       </c>
+      <c r="L52">
+        <v>2957</v>
+      </c>
       <c r="M52">
-        <v>2957</v>
+        <v>629</v>
       </c>
       <c r="N52">
-        <v>629</v>
+        <v>1220</v>
       </c>
       <c r="O52">
-        <v>1220</v>
+        <v>143</v>
       </c>
       <c r="P52">
-        <v>143</v>
+        <v>477</v>
       </c>
       <c r="Q52">
-        <v>477</v>
+        <v>232</v>
       </c>
       <c r="R52">
-        <v>232</v>
+        <v>2639</v>
       </c>
       <c r="S52">
-        <v>2639</v>
+        <v>261</v>
       </c>
       <c r="T52">
-        <v>261</v>
+        <v>1196</v>
       </c>
       <c r="U52">
-        <v>1196</v>
+        <v>209</v>
       </c>
       <c r="V52">
-        <v>209</v>
+        <v>587</v>
       </c>
       <c r="W52">
-        <v>587</v>
-      </c>
-      <c r="X52">
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -5243,44 +5244,44 @@
       <c r="K53" t="s">
         <v>221</v>
       </c>
+      <c r="L53">
+        <v>24200</v>
+      </c>
       <c r="M53">
-        <v>24200</v>
+        <v>1638</v>
       </c>
       <c r="N53">
-        <v>1638</v>
+        <v>5439</v>
       </c>
       <c r="O53">
-        <v>5439</v>
+        <v>1034</v>
       </c>
       <c r="P53">
-        <v>1034</v>
+        <v>2698</v>
       </c>
       <c r="Q53">
-        <v>2698</v>
+        <v>1134</v>
       </c>
       <c r="R53">
-        <v>1134</v>
+        <v>24128</v>
       </c>
       <c r="S53">
-        <v>24128</v>
+        <v>2021</v>
       </c>
       <c r="T53">
-        <v>2021</v>
+        <v>5924</v>
       </c>
       <c r="U53">
-        <v>5924</v>
+        <v>975</v>
       </c>
       <c r="V53">
-        <v>975</v>
+        <v>3755</v>
       </c>
       <c r="W53">
-        <v>3755</v>
-      </c>
-      <c r="X53">
         <v>1614</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>222</v>
       </c>
@@ -5311,44 +5312,44 @@
       <c r="K54" t="s">
         <v>225</v>
       </c>
+      <c r="L54">
+        <v>3798</v>
+      </c>
       <c r="M54">
-        <v>3798</v>
+        <v>450</v>
       </c>
       <c r="N54">
-        <v>450</v>
+        <v>1189</v>
       </c>
       <c r="O54">
-        <v>1189</v>
+        <v>177</v>
       </c>
       <c r="P54">
-        <v>177</v>
+        <v>752</v>
       </c>
       <c r="Q54">
-        <v>752</v>
+        <v>375</v>
       </c>
       <c r="R54">
-        <v>375</v>
+        <v>3814</v>
       </c>
       <c r="S54">
-        <v>3814</v>
+        <v>252</v>
       </c>
       <c r="T54">
-        <v>252</v>
+        <v>1128</v>
       </c>
       <c r="U54">
-        <v>1128</v>
+        <v>162</v>
       </c>
       <c r="V54">
-        <v>162</v>
+        <v>1019</v>
       </c>
       <c r="W54">
-        <v>1019</v>
-      </c>
-      <c r="X54">
         <v>475</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>226</v>
       </c>
@@ -5379,44 +5380,44 @@
       <c r="K55" t="s">
         <v>229</v>
       </c>
+      <c r="L55">
+        <v>1947</v>
+      </c>
       <c r="M55">
-        <v>1947</v>
+        <v>330</v>
       </c>
       <c r="N55">
-        <v>330</v>
+        <v>621</v>
       </c>
       <c r="O55">
-        <v>621</v>
+        <v>164</v>
       </c>
       <c r="P55">
-        <v>164</v>
+        <v>382</v>
       </c>
       <c r="Q55">
-        <v>382</v>
+        <v>198</v>
       </c>
       <c r="R55">
-        <v>198</v>
+        <v>1841</v>
       </c>
       <c r="S55">
-        <v>1841</v>
+        <v>252</v>
       </c>
       <c r="T55">
-        <v>252</v>
+        <v>558</v>
       </c>
       <c r="U55">
-        <v>558</v>
+        <v>123</v>
       </c>
       <c r="V55">
-        <v>123</v>
+        <v>526</v>
       </c>
       <c r="W55">
-        <v>526</v>
-      </c>
-      <c r="X55">
         <v>296</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>230</v>
       </c>
@@ -5447,44 +5448,44 @@
       <c r="K56" t="s">
         <v>233</v>
       </c>
+      <c r="L56">
+        <v>2828</v>
+      </c>
       <c r="M56">
-        <v>2828</v>
+        <v>503</v>
       </c>
       <c r="N56">
-        <v>503</v>
+        <v>881</v>
       </c>
       <c r="O56">
-        <v>881</v>
+        <v>306</v>
       </c>
       <c r="P56">
-        <v>306</v>
+        <v>704</v>
       </c>
       <c r="Q56">
-        <v>704</v>
+        <v>292</v>
       </c>
       <c r="R56">
-        <v>292</v>
+        <v>2609</v>
       </c>
       <c r="S56">
-        <v>2609</v>
+        <v>387</v>
       </c>
       <c r="T56">
+        <v>903</v>
+      </c>
+      <c r="U56">
+        <v>178</v>
+      </c>
+      <c r="V56">
+        <v>835</v>
+      </c>
+      <c r="W56">
         <v>387</v>
       </c>
-      <c r="U56">
-        <v>903</v>
-      </c>
-      <c r="V56">
-        <v>178</v>
-      </c>
-      <c r="W56">
-        <v>835</v>
-      </c>
-      <c r="X56">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>234</v>
       </c>
@@ -5515,44 +5516,44 @@
       <c r="K57" t="s">
         <v>237</v>
       </c>
+      <c r="L57">
+        <v>6487</v>
+      </c>
       <c r="M57">
-        <v>6487</v>
+        <v>1040</v>
       </c>
       <c r="N57">
-        <v>1040</v>
+        <v>1926</v>
       </c>
       <c r="O57">
-        <v>1926</v>
+        <v>647</v>
       </c>
       <c r="P57">
-        <v>647</v>
+        <v>946</v>
       </c>
       <c r="Q57">
-        <v>946</v>
+        <v>480</v>
       </c>
       <c r="R57">
-        <v>480</v>
+        <v>6284</v>
       </c>
       <c r="S57">
-        <v>6284</v>
+        <v>1124</v>
       </c>
       <c r="T57">
-        <v>1124</v>
+        <v>2205</v>
       </c>
       <c r="U57">
-        <v>2205</v>
+        <v>378</v>
       </c>
       <c r="V57">
-        <v>378</v>
+        <v>1427</v>
       </c>
       <c r="W57">
-        <v>1427</v>
-      </c>
-      <c r="X57">
         <v>658</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>238</v>
       </c>
@@ -5583,44 +5584,44 @@
       <c r="K58" t="s">
         <v>241</v>
       </c>
+      <c r="L58">
+        <v>43758</v>
+      </c>
       <c r="M58">
-        <v>43758</v>
+        <v>3848</v>
       </c>
       <c r="N58">
-        <v>3848</v>
+        <v>10035</v>
       </c>
       <c r="O58">
-        <v>10035</v>
+        <v>2280</v>
       </c>
       <c r="P58">
-        <v>2280</v>
+        <v>6010</v>
       </c>
       <c r="Q58">
-        <v>6010</v>
+        <v>2475</v>
       </c>
       <c r="R58">
-        <v>2475</v>
+        <v>43583</v>
       </c>
       <c r="S58">
-        <v>43583</v>
+        <v>3889</v>
       </c>
       <c r="T58">
-        <v>3889</v>
+        <v>11095</v>
       </c>
       <c r="U58">
-        <v>11095</v>
+        <v>1343</v>
       </c>
       <c r="V58">
-        <v>1343</v>
+        <v>8402</v>
       </c>
       <c r="W58">
-        <v>8402</v>
-      </c>
-      <c r="X58">
         <v>3361</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>242</v>
       </c>
@@ -5651,44 +5652,44 @@
       <c r="K59" t="s">
         <v>245</v>
       </c>
+      <c r="L59">
+        <v>2207</v>
+      </c>
       <c r="M59">
-        <v>2207</v>
+        <v>154</v>
       </c>
       <c r="N59">
-        <v>154</v>
+        <v>559</v>
       </c>
       <c r="O59">
-        <v>559</v>
+        <v>232</v>
       </c>
       <c r="P59">
-        <v>232</v>
+        <v>351</v>
       </c>
       <c r="Q59">
-        <v>351</v>
+        <v>124</v>
       </c>
       <c r="R59">
-        <v>124</v>
+        <v>2106</v>
       </c>
       <c r="S59">
-        <v>2106</v>
+        <v>193</v>
       </c>
       <c r="T59">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="U59">
-        <v>550</v>
+        <v>225</v>
       </c>
       <c r="V59">
-        <v>225</v>
+        <v>488</v>
       </c>
       <c r="W59">
-        <v>488</v>
-      </c>
-      <c r="X59">
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>246</v>
       </c>
@@ -5719,44 +5720,44 @@
       <c r="K60" t="s">
         <v>249</v>
       </c>
+      <c r="L60">
+        <v>1675</v>
+      </c>
       <c r="M60">
-        <v>1675</v>
+        <v>291</v>
       </c>
       <c r="N60">
-        <v>291</v>
+        <v>514</v>
       </c>
       <c r="O60">
-        <v>514</v>
+        <v>207</v>
       </c>
       <c r="P60">
-        <v>207</v>
+        <v>356</v>
       </c>
       <c r="Q60">
-        <v>356</v>
+        <v>199</v>
       </c>
       <c r="R60">
-        <v>199</v>
+        <v>1618</v>
       </c>
       <c r="S60">
-        <v>1618</v>
+        <v>221</v>
       </c>
       <c r="T60">
-        <v>221</v>
+        <v>495</v>
       </c>
       <c r="U60">
-        <v>495</v>
+        <v>122</v>
       </c>
       <c r="V60">
-        <v>122</v>
+        <v>419</v>
       </c>
       <c r="W60">
-        <v>419</v>
-      </c>
-      <c r="X60">
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>250</v>
       </c>
@@ -5787,44 +5788,44 @@
       <c r="K61" t="s">
         <v>253</v>
       </c>
+      <c r="L61">
+        <v>2226</v>
+      </c>
       <c r="M61">
-        <v>2226</v>
+        <v>218</v>
       </c>
       <c r="N61">
-        <v>218</v>
+        <v>581</v>
       </c>
       <c r="O61">
-        <v>581</v>
+        <v>182</v>
       </c>
       <c r="P61">
-        <v>182</v>
+        <v>382</v>
       </c>
       <c r="Q61">
-        <v>382</v>
+        <v>144</v>
       </c>
       <c r="R61">
-        <v>144</v>
+        <v>2050</v>
       </c>
       <c r="S61">
-        <v>2050</v>
+        <v>221</v>
       </c>
       <c r="T61">
-        <v>221</v>
+        <v>572</v>
       </c>
       <c r="U61">
-        <v>572</v>
+        <v>80</v>
       </c>
       <c r="V61">
-        <v>80</v>
+        <v>533</v>
       </c>
       <c r="W61">
-        <v>533</v>
-      </c>
-      <c r="X61">
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>254</v>
       </c>
@@ -5855,44 +5856,44 @@
       <c r="K62" t="s">
         <v>257</v>
       </c>
+      <c r="L62">
+        <v>3365</v>
+      </c>
       <c r="M62">
-        <v>3365</v>
+        <v>251</v>
       </c>
       <c r="N62">
-        <v>251</v>
+        <v>885</v>
       </c>
       <c r="O62">
-        <v>885</v>
+        <v>88</v>
       </c>
       <c r="P62">
-        <v>88</v>
+        <v>454</v>
       </c>
       <c r="Q62">
-        <v>454</v>
+        <v>206</v>
       </c>
       <c r="R62">
-        <v>206</v>
+        <v>3292</v>
       </c>
       <c r="S62">
-        <v>3292</v>
+        <v>282</v>
       </c>
       <c r="T62">
-        <v>282</v>
+        <v>783</v>
       </c>
       <c r="U62">
-        <v>783</v>
+        <v>77</v>
       </c>
       <c r="V62">
-        <v>77</v>
+        <v>592</v>
       </c>
       <c r="W62">
-        <v>592</v>
-      </c>
-      <c r="X62">
         <v>360</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>258</v>
       </c>
@@ -5923,44 +5924,44 @@
       <c r="K63" t="s">
         <v>261</v>
       </c>
+      <c r="L63">
+        <v>4110</v>
+      </c>
       <c r="M63">
-        <v>4110</v>
+        <v>392</v>
       </c>
       <c r="N63">
-        <v>392</v>
+        <v>1104</v>
       </c>
       <c r="O63">
-        <v>1104</v>
+        <v>359</v>
       </c>
       <c r="P63">
-        <v>359</v>
+        <v>615</v>
       </c>
       <c r="Q63">
-        <v>615</v>
+        <v>326</v>
       </c>
       <c r="R63">
-        <v>326</v>
+        <v>3961</v>
       </c>
       <c r="S63">
-        <v>3961</v>
+        <v>458</v>
       </c>
       <c r="T63">
-        <v>458</v>
+        <v>1140</v>
       </c>
       <c r="U63">
-        <v>1140</v>
+        <v>236</v>
       </c>
       <c r="V63">
-        <v>236</v>
+        <v>909</v>
       </c>
       <c r="W63">
-        <v>909</v>
-      </c>
-      <c r="X63">
         <v>465</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>262</v>
       </c>
@@ -5991,44 +5992,44 @@
       <c r="K64" t="s">
         <v>265</v>
       </c>
+      <c r="L64">
+        <v>6434</v>
+      </c>
       <c r="M64">
-        <v>6434</v>
+        <v>1159</v>
       </c>
       <c r="N64">
-        <v>1159</v>
+        <v>1618</v>
       </c>
       <c r="O64">
-        <v>1618</v>
+        <v>323</v>
       </c>
       <c r="P64">
-        <v>323</v>
+        <v>1013</v>
       </c>
       <c r="Q64">
-        <v>1013</v>
+        <v>521</v>
       </c>
       <c r="R64">
-        <v>521</v>
+        <v>6184</v>
       </c>
       <c r="S64">
-        <v>6184</v>
+        <v>704</v>
       </c>
       <c r="T64">
-        <v>704</v>
+        <v>1728</v>
       </c>
       <c r="U64">
-        <v>1728</v>
+        <v>407</v>
       </c>
       <c r="V64">
-        <v>407</v>
+        <v>1417</v>
       </c>
       <c r="W64">
-        <v>1417</v>
-      </c>
-      <c r="X64">
         <v>829</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>266</v>
       </c>
@@ -6059,44 +6060,44 @@
       <c r="K65" t="s">
         <v>269</v>
       </c>
+      <c r="L65">
+        <v>7575</v>
+      </c>
       <c r="M65">
-        <v>7575</v>
+        <v>912</v>
       </c>
       <c r="N65">
-        <v>912</v>
+        <v>1615</v>
       </c>
       <c r="O65">
-        <v>1615</v>
+        <v>287</v>
       </c>
       <c r="P65">
-        <v>287</v>
+        <v>904</v>
       </c>
       <c r="Q65">
-        <v>904</v>
+        <v>445</v>
       </c>
       <c r="R65">
-        <v>445</v>
+        <v>7153</v>
       </c>
       <c r="S65">
-        <v>7153</v>
+        <v>866</v>
       </c>
       <c r="T65">
-        <v>866</v>
+        <v>2068</v>
       </c>
       <c r="U65">
-        <v>2068</v>
+        <v>490</v>
       </c>
       <c r="V65">
-        <v>490</v>
+        <v>1669</v>
       </c>
       <c r="W65">
-        <v>1669</v>
-      </c>
-      <c r="X65">
         <v>695</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>270</v>
       </c>
@@ -6127,44 +6128,44 @@
       <c r="K66" t="s">
         <v>273</v>
       </c>
+      <c r="L66">
+        <v>2980</v>
+      </c>
       <c r="M66">
-        <v>2980</v>
+        <v>487</v>
       </c>
       <c r="N66">
-        <v>487</v>
+        <v>858</v>
       </c>
       <c r="O66">
-        <v>858</v>
+        <v>249</v>
       </c>
       <c r="P66">
-        <v>249</v>
+        <v>433</v>
       </c>
       <c r="Q66">
-        <v>433</v>
+        <v>224</v>
       </c>
       <c r="R66">
-        <v>224</v>
+        <v>2905</v>
       </c>
       <c r="S66">
-        <v>2905</v>
+        <v>371</v>
       </c>
       <c r="T66">
-        <v>371</v>
+        <v>876</v>
       </c>
       <c r="U66">
-        <v>876</v>
+        <v>183</v>
       </c>
       <c r="V66">
-        <v>183</v>
+        <v>481</v>
       </c>
       <c r="W66">
-        <v>481</v>
-      </c>
-      <c r="X66">
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>274</v>
       </c>
@@ -6195,44 +6196,44 @@
       <c r="K67" t="s">
         <v>277</v>
       </c>
+      <c r="L67">
+        <v>2005</v>
+      </c>
       <c r="M67">
-        <v>2005</v>
+        <v>270</v>
       </c>
       <c r="N67">
-        <v>270</v>
+        <v>543</v>
       </c>
       <c r="O67">
-        <v>543</v>
+        <v>123</v>
       </c>
       <c r="P67">
-        <v>123</v>
+        <v>394</v>
       </c>
       <c r="Q67">
-        <v>394</v>
+        <v>95</v>
       </c>
       <c r="R67">
-        <v>95</v>
+        <v>1894</v>
       </c>
       <c r="S67">
-        <v>1894</v>
+        <v>131</v>
       </c>
       <c r="T67">
-        <v>131</v>
+        <v>530</v>
       </c>
       <c r="U67">
-        <v>530</v>
+        <v>93</v>
       </c>
       <c r="V67">
-        <v>93</v>
+        <v>567</v>
       </c>
       <c r="W67">
-        <v>567</v>
-      </c>
-      <c r="X67">
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>278</v>
       </c>
@@ -6263,44 +6264,44 @@
       <c r="K68" t="s">
         <v>281</v>
       </c>
+      <c r="L68">
+        <v>1588</v>
+      </c>
       <c r="M68">
-        <v>1588</v>
+        <v>236</v>
       </c>
       <c r="N68">
-        <v>236</v>
+        <v>514</v>
       </c>
       <c r="O68">
-        <v>514</v>
+        <v>84</v>
       </c>
       <c r="P68">
-        <v>84</v>
+        <v>363</v>
       </c>
       <c r="Q68">
-        <v>363</v>
+        <v>201</v>
       </c>
       <c r="R68">
+        <v>1630</v>
+      </c>
+      <c r="S68">
+        <v>226</v>
+      </c>
+      <c r="T68">
+        <v>550</v>
+      </c>
+      <c r="U68">
+        <v>73</v>
+      </c>
+      <c r="V68">
+        <v>571</v>
+      </c>
+      <c r="W68">
         <v>201</v>
       </c>
-      <c r="S68">
-        <v>1630</v>
-      </c>
-      <c r="T68">
-        <v>226</v>
-      </c>
-      <c r="U68">
-        <v>550</v>
-      </c>
-      <c r="V68">
-        <v>73</v>
-      </c>
-      <c r="W68">
-        <v>571</v>
-      </c>
-      <c r="X68">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>282</v>
       </c>
@@ -6331,44 +6332,44 @@
       <c r="K69" t="s">
         <v>285</v>
       </c>
+      <c r="L69">
+        <v>1471</v>
+      </c>
       <c r="M69">
-        <v>1471</v>
+        <v>242</v>
       </c>
       <c r="N69">
-        <v>242</v>
+        <v>417</v>
       </c>
       <c r="O69">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="P69">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Q69">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="R69">
-        <v>147</v>
+        <v>1447</v>
       </c>
       <c r="S69">
-        <v>1447</v>
+        <v>130</v>
       </c>
       <c r="T69">
-        <v>130</v>
+        <v>435</v>
       </c>
       <c r="U69">
-        <v>435</v>
+        <v>55</v>
       </c>
       <c r="V69">
-        <v>55</v>
+        <v>298</v>
       </c>
       <c r="W69">
-        <v>298</v>
-      </c>
-      <c r="X69">
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>286</v>
       </c>
@@ -6399,44 +6400,44 @@
       <c r="K70" t="s">
         <v>289</v>
       </c>
+      <c r="L70">
+        <v>1917</v>
+      </c>
       <c r="M70">
-        <v>1917</v>
+        <v>290</v>
       </c>
       <c r="N70">
-        <v>290</v>
+        <v>615</v>
       </c>
       <c r="O70">
-        <v>615</v>
+        <v>210</v>
       </c>
       <c r="P70">
-        <v>210</v>
+        <v>324</v>
       </c>
       <c r="Q70">
-        <v>324</v>
+        <v>128</v>
       </c>
       <c r="R70">
-        <v>128</v>
+        <v>1892</v>
       </c>
       <c r="S70">
-        <v>1892</v>
+        <v>245</v>
       </c>
       <c r="T70">
-        <v>245</v>
+        <v>600</v>
       </c>
       <c r="U70">
-        <v>600</v>
+        <v>88</v>
       </c>
       <c r="V70">
-        <v>88</v>
+        <v>564</v>
       </c>
       <c r="W70">
-        <v>564</v>
-      </c>
-      <c r="X70">
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>290</v>
       </c>
@@ -6467,44 +6468,44 @@
       <c r="K71" t="s">
         <v>293</v>
       </c>
+      <c r="L71">
+        <v>8297</v>
+      </c>
       <c r="M71">
-        <v>8297</v>
+        <v>1060</v>
       </c>
       <c r="N71">
-        <v>1060</v>
+        <v>2079</v>
       </c>
       <c r="O71">
-        <v>2079</v>
+        <v>400</v>
       </c>
       <c r="P71">
-        <v>400</v>
+        <v>1038</v>
       </c>
       <c r="Q71">
-        <v>1038</v>
+        <v>543</v>
       </c>
       <c r="R71">
-        <v>543</v>
+        <v>8028</v>
       </c>
       <c r="S71">
-        <v>8028</v>
+        <v>917</v>
       </c>
       <c r="T71">
-        <v>917</v>
+        <v>2211</v>
       </c>
       <c r="U71">
-        <v>2211</v>
+        <v>641</v>
       </c>
       <c r="V71">
-        <v>641</v>
+        <v>1448</v>
       </c>
       <c r="W71">
-        <v>1448</v>
-      </c>
-      <c r="X71">
         <v>654</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>294</v>
       </c>
@@ -6535,44 +6536,44 @@
       <c r="K72" t="s">
         <v>297</v>
       </c>
+      <c r="L72">
+        <v>2621</v>
+      </c>
       <c r="M72">
-        <v>2621</v>
+        <v>413</v>
       </c>
       <c r="N72">
-        <v>413</v>
+        <v>732</v>
       </c>
       <c r="O72">
-        <v>732</v>
+        <v>128</v>
       </c>
       <c r="P72">
-        <v>128</v>
+        <v>518</v>
       </c>
       <c r="Q72">
-        <v>518</v>
+        <v>221</v>
       </c>
       <c r="R72">
-        <v>221</v>
+        <v>2458</v>
       </c>
       <c r="S72">
-        <v>2458</v>
+        <v>467</v>
       </c>
       <c r="T72">
-        <v>467</v>
+        <v>709</v>
       </c>
       <c r="U72">
-        <v>709</v>
+        <v>88</v>
       </c>
       <c r="V72">
-        <v>88</v>
+        <v>756</v>
       </c>
       <c r="W72">
-        <v>756</v>
-      </c>
-      <c r="X72">
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>298</v>
       </c>
@@ -6603,44 +6604,44 @@
       <c r="K73" t="s">
         <v>301</v>
       </c>
+      <c r="L73">
+        <v>1224</v>
+      </c>
       <c r="M73">
-        <v>1224</v>
+        <v>161</v>
       </c>
       <c r="N73">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="O73">
-        <v>335</v>
+        <v>75</v>
       </c>
       <c r="P73">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="Q73">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="R73">
-        <v>102</v>
+        <v>1154</v>
       </c>
       <c r="S73">
-        <v>1154</v>
+        <v>113</v>
       </c>
       <c r="T73">
-        <v>113</v>
+        <v>323</v>
       </c>
       <c r="U73">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="V73">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="W73">
-        <v>343</v>
-      </c>
-      <c r="X73">
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>302</v>
       </c>
@@ -6671,44 +6672,44 @@
       <c r="K74" t="s">
         <v>305</v>
       </c>
+      <c r="L74">
+        <v>2852</v>
+      </c>
       <c r="M74">
-        <v>2852</v>
+        <v>378</v>
       </c>
       <c r="N74">
-        <v>378</v>
+        <v>918</v>
       </c>
       <c r="O74">
-        <v>918</v>
+        <v>176</v>
       </c>
       <c r="P74">
-        <v>176</v>
+        <v>674</v>
       </c>
       <c r="Q74">
-        <v>674</v>
+        <v>254</v>
       </c>
       <c r="R74">
-        <v>254</v>
+        <v>2764</v>
       </c>
       <c r="S74">
-        <v>2764</v>
+        <v>406</v>
       </c>
       <c r="T74">
-        <v>406</v>
+        <v>910</v>
       </c>
       <c r="U74">
-        <v>910</v>
+        <v>177</v>
       </c>
       <c r="V74">
-        <v>177</v>
+        <v>811</v>
       </c>
       <c r="W74">
-        <v>811</v>
-      </c>
-      <c r="X74">
         <v>418</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>306</v>
       </c>
@@ -6739,44 +6740,44 @@
       <c r="K75" t="s">
         <v>309</v>
       </c>
+      <c r="L75">
+        <v>1704</v>
+      </c>
       <c r="M75">
-        <v>1704</v>
+        <v>301</v>
       </c>
       <c r="N75">
-        <v>301</v>
+        <v>501</v>
       </c>
       <c r="O75">
-        <v>501</v>
+        <v>91</v>
       </c>
       <c r="P75">
-        <v>91</v>
+        <v>312</v>
       </c>
       <c r="Q75">
-        <v>312</v>
+        <v>149</v>
       </c>
       <c r="R75">
-        <v>149</v>
+        <v>1582</v>
       </c>
       <c r="S75">
-        <v>1582</v>
+        <v>203</v>
       </c>
       <c r="T75">
-        <v>203</v>
+        <v>518</v>
       </c>
       <c r="U75">
-        <v>518</v>
+        <v>127</v>
       </c>
       <c r="V75">
-        <v>127</v>
+        <v>453</v>
       </c>
       <c r="W75">
-        <v>453</v>
-      </c>
-      <c r="X75">
         <v>199</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>310</v>
       </c>
@@ -6807,44 +6808,44 @@
       <c r="K76" t="s">
         <v>313</v>
       </c>
+      <c r="L76">
+        <v>4947</v>
+      </c>
       <c r="M76">
-        <v>4947</v>
+        <v>474</v>
       </c>
       <c r="N76">
-        <v>474</v>
+        <v>1308</v>
       </c>
       <c r="O76">
-        <v>1308</v>
+        <v>237</v>
       </c>
       <c r="P76">
-        <v>237</v>
+        <v>820</v>
       </c>
       <c r="Q76">
-        <v>820</v>
+        <v>368</v>
       </c>
       <c r="R76">
-        <v>368</v>
+        <v>4789</v>
       </c>
       <c r="S76">
-        <v>4789</v>
+        <v>533</v>
       </c>
       <c r="T76">
-        <v>533</v>
+        <v>1333</v>
       </c>
       <c r="U76">
-        <v>1333</v>
+        <v>292</v>
       </c>
       <c r="V76">
-        <v>292</v>
+        <v>1073</v>
       </c>
       <c r="W76">
-        <v>1073</v>
-      </c>
-      <c r="X76">
         <v>568</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>314</v>
       </c>
@@ -6875,44 +6876,44 @@
       <c r="K77" t="s">
         <v>317</v>
       </c>
+      <c r="L77">
+        <v>1378</v>
+      </c>
       <c r="M77">
-        <v>1378</v>
+        <v>215</v>
       </c>
       <c r="N77">
-        <v>215</v>
+        <v>406</v>
       </c>
       <c r="O77">
-        <v>406</v>
+        <v>64</v>
       </c>
       <c r="P77">
-        <v>64</v>
+        <v>296</v>
       </c>
       <c r="Q77">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="R77">
-        <v>158</v>
+        <v>1321</v>
       </c>
       <c r="S77">
-        <v>1321</v>
+        <v>178</v>
       </c>
       <c r="T77">
-        <v>178</v>
+        <v>392</v>
       </c>
       <c r="U77">
-        <v>392</v>
+        <v>46</v>
       </c>
       <c r="V77">
-        <v>46</v>
+        <v>408</v>
       </c>
       <c r="W77">
-        <v>408</v>
-      </c>
-      <c r="X77">
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>318</v>
       </c>
@@ -6943,44 +6944,44 @@
       <c r="K78" t="s">
         <v>321</v>
       </c>
+      <c r="L78">
+        <v>92310</v>
+      </c>
       <c r="M78">
-        <v>92310</v>
+        <v>9638</v>
       </c>
       <c r="N78">
-        <v>9638</v>
+        <v>18231</v>
       </c>
       <c r="O78">
-        <v>18231</v>
+        <v>4581</v>
       </c>
       <c r="P78">
-        <v>4581</v>
+        <v>9411</v>
       </c>
       <c r="Q78">
-        <v>9411</v>
+        <v>4143</v>
       </c>
       <c r="R78">
-        <v>4143</v>
+        <v>92223</v>
       </c>
       <c r="S78">
-        <v>92223</v>
+        <v>10352</v>
       </c>
       <c r="T78">
-        <v>10352</v>
+        <v>20818</v>
       </c>
       <c r="U78">
-        <v>20818</v>
+        <v>4220</v>
       </c>
       <c r="V78">
-        <v>4220</v>
+        <v>13736</v>
       </c>
       <c r="W78">
-        <v>13736</v>
-      </c>
-      <c r="X78">
         <v>5932</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>322</v>
       </c>
@@ -7011,44 +7012,44 @@
       <c r="K79" t="s">
         <v>325</v>
       </c>
+      <c r="L79">
+        <v>17716</v>
+      </c>
       <c r="M79">
-        <v>17716</v>
+        <v>2628</v>
       </c>
       <c r="N79">
-        <v>2628</v>
+        <v>4681</v>
       </c>
       <c r="O79">
-        <v>4681</v>
+        <v>1424</v>
       </c>
       <c r="P79">
-        <v>1424</v>
+        <v>2611</v>
       </c>
       <c r="Q79">
-        <v>2611</v>
+        <v>1341</v>
       </c>
       <c r="R79">
-        <v>1341</v>
+        <v>17984</v>
       </c>
       <c r="S79">
-        <v>17984</v>
+        <v>2875</v>
       </c>
       <c r="T79">
-        <v>2875</v>
+        <v>5073</v>
       </c>
       <c r="U79">
-        <v>5073</v>
+        <v>1283</v>
       </c>
       <c r="V79">
-        <v>1283</v>
+        <v>3671</v>
       </c>
       <c r="W79">
-        <v>3671</v>
-      </c>
-      <c r="X79">
         <v>1756</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>326</v>
       </c>
@@ -7079,44 +7080,44 @@
       <c r="K80" t="s">
         <v>329</v>
       </c>
+      <c r="L80">
+        <v>3185</v>
+      </c>
       <c r="M80">
-        <v>3185</v>
+        <v>325</v>
       </c>
       <c r="N80">
-        <v>325</v>
+        <v>979</v>
       </c>
       <c r="O80">
-        <v>979</v>
+        <v>260</v>
       </c>
       <c r="P80">
-        <v>260</v>
+        <v>694</v>
       </c>
       <c r="Q80">
-        <v>694</v>
+        <v>279</v>
       </c>
       <c r="R80">
-        <v>279</v>
+        <v>3318</v>
       </c>
       <c r="S80">
-        <v>3318</v>
+        <v>412</v>
       </c>
       <c r="T80">
-        <v>412</v>
+        <v>1004</v>
       </c>
       <c r="U80">
-        <v>1004</v>
+        <v>148</v>
       </c>
       <c r="V80">
-        <v>148</v>
+        <v>918</v>
       </c>
       <c r="W80">
-        <v>918</v>
-      </c>
-      <c r="X80">
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>330</v>
       </c>
@@ -7147,44 +7148,44 @@
       <c r="K81" t="s">
         <v>333</v>
       </c>
+      <c r="L81">
+        <v>819</v>
+      </c>
       <c r="M81">
-        <v>819</v>
+        <v>65</v>
       </c>
       <c r="N81">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="O81">
-        <v>277</v>
+        <v>70</v>
       </c>
       <c r="P81">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="Q81">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="R81">
-        <v>115</v>
+        <v>866</v>
       </c>
       <c r="S81">
-        <v>866</v>
+        <v>97</v>
       </c>
       <c r="T81">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="U81">
-        <v>266</v>
+        <v>60</v>
       </c>
       <c r="V81">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="W81">
-        <v>218</v>
-      </c>
-      <c r="X81">
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>334</v>
       </c>
@@ -7215,44 +7216,44 @@
       <c r="K82" t="s">
         <v>337</v>
       </c>
+      <c r="L82">
+        <v>1888</v>
+      </c>
       <c r="M82">
-        <v>1888</v>
+        <v>198</v>
       </c>
       <c r="N82">
-        <v>198</v>
+        <v>601</v>
       </c>
       <c r="O82">
-        <v>601</v>
+        <v>178</v>
       </c>
       <c r="P82">
-        <v>178</v>
+        <v>380</v>
       </c>
       <c r="Q82">
-        <v>380</v>
+        <v>143</v>
       </c>
       <c r="R82">
-        <v>143</v>
+        <v>1818</v>
       </c>
       <c r="S82">
-        <v>1818</v>
+        <v>188</v>
       </c>
       <c r="T82">
-        <v>188</v>
+        <v>616</v>
       </c>
       <c r="U82">
-        <v>616</v>
+        <v>100</v>
       </c>
       <c r="V82">
-        <v>100</v>
+        <v>560</v>
       </c>
       <c r="W82">
-        <v>560</v>
-      </c>
-      <c r="X82">
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>338</v>
       </c>
@@ -7283,44 +7284,44 @@
       <c r="K83" t="s">
         <v>341</v>
       </c>
+      <c r="L83">
+        <v>33593</v>
+      </c>
       <c r="M83">
-        <v>33593</v>
+        <v>3841</v>
       </c>
       <c r="N83">
-        <v>3841</v>
+        <v>8240</v>
       </c>
       <c r="O83">
-        <v>8240</v>
+        <v>1812</v>
       </c>
       <c r="P83">
-        <v>1812</v>
+        <v>4283</v>
       </c>
       <c r="Q83">
-        <v>4283</v>
+        <v>1581</v>
       </c>
       <c r="R83">
-        <v>1581</v>
+        <v>33702</v>
       </c>
       <c r="S83">
-        <v>33702</v>
+        <v>3761</v>
       </c>
       <c r="T83">
-        <v>3761</v>
+        <v>8735</v>
       </c>
       <c r="U83">
-        <v>8735</v>
+        <v>1641</v>
       </c>
       <c r="V83">
-        <v>1641</v>
+        <v>6156</v>
       </c>
       <c r="W83">
-        <v>6156</v>
-      </c>
-      <c r="X83">
         <v>2423</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>342</v>
       </c>
@@ -7351,44 +7352,44 @@
       <c r="K84" t="s">
         <v>345</v>
       </c>
+      <c r="L84">
+        <v>2214</v>
+      </c>
       <c r="M84">
-        <v>2214</v>
+        <v>219</v>
       </c>
       <c r="N84">
-        <v>219</v>
+        <v>629</v>
       </c>
       <c r="O84">
-        <v>629</v>
+        <v>55</v>
       </c>
       <c r="P84">
-        <v>55</v>
+        <v>508</v>
       </c>
       <c r="Q84">
-        <v>508</v>
+        <v>195</v>
       </c>
       <c r="R84">
-        <v>195</v>
+        <v>2263</v>
       </c>
       <c r="S84">
-        <v>2263</v>
+        <v>169</v>
       </c>
       <c r="T84">
-        <v>169</v>
+        <v>732</v>
       </c>
       <c r="U84">
-        <v>732</v>
+        <v>90</v>
       </c>
       <c r="V84">
-        <v>90</v>
+        <v>631</v>
       </c>
       <c r="W84">
-        <v>631</v>
-      </c>
-      <c r="X84">
         <v>264</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>346</v>
       </c>
@@ -7419,44 +7420,44 @@
       <c r="K85" t="s">
         <v>349</v>
       </c>
+      <c r="L85">
+        <v>6114</v>
+      </c>
       <c r="M85">
-        <v>6114</v>
+        <v>528</v>
       </c>
       <c r="N85">
-        <v>528</v>
+        <v>1422</v>
       </c>
       <c r="O85">
-        <v>1422</v>
+        <v>287</v>
       </c>
       <c r="P85">
-        <v>287</v>
+        <v>989</v>
       </c>
       <c r="Q85">
-        <v>989</v>
+        <v>409</v>
       </c>
       <c r="R85">
-        <v>409</v>
+        <v>5742</v>
       </c>
       <c r="S85">
-        <v>5742</v>
+        <v>388</v>
       </c>
       <c r="T85">
-        <v>388</v>
+        <v>1427</v>
       </c>
       <c r="U85">
-        <v>1427</v>
+        <v>315</v>
       </c>
       <c r="V85">
-        <v>315</v>
+        <v>1452</v>
       </c>
       <c r="W85">
-        <v>1452</v>
-      </c>
-      <c r="X85">
         <v>647</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>350</v>
       </c>
@@ -7487,44 +7488,44 @@
       <c r="K86" t="s">
         <v>353</v>
       </c>
+      <c r="L86">
+        <v>13944</v>
+      </c>
       <c r="M86">
-        <v>13944</v>
+        <v>1284</v>
       </c>
       <c r="N86">
-        <v>1284</v>
+        <v>3349</v>
       </c>
       <c r="O86">
-        <v>3349</v>
+        <v>728</v>
       </c>
       <c r="P86">
-        <v>728</v>
+        <v>2008</v>
       </c>
       <c r="Q86">
-        <v>2008</v>
+        <v>847</v>
       </c>
       <c r="R86">
-        <v>847</v>
+        <v>13356</v>
       </c>
       <c r="S86">
-        <v>13356</v>
+        <v>1196</v>
       </c>
       <c r="T86">
-        <v>1196</v>
+        <v>3679</v>
       </c>
       <c r="U86">
-        <v>3679</v>
+        <v>477</v>
       </c>
       <c r="V86">
-        <v>477</v>
+        <v>2712</v>
       </c>
       <c r="W86">
-        <v>2712</v>
-      </c>
-      <c r="X86">
         <v>1150</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>354</v>
       </c>
@@ -7555,44 +7556,44 @@
       <c r="K87" t="s">
         <v>357</v>
       </c>
+      <c r="L87">
+        <v>3271</v>
+      </c>
       <c r="M87">
-        <v>3271</v>
+        <v>307</v>
       </c>
       <c r="N87">
-        <v>307</v>
+        <v>910</v>
       </c>
       <c r="O87">
-        <v>910</v>
+        <v>126</v>
       </c>
       <c r="P87">
-        <v>126</v>
+        <v>546</v>
       </c>
       <c r="Q87">
-        <v>546</v>
+        <v>210</v>
       </c>
       <c r="R87">
-        <v>210</v>
+        <v>3202</v>
       </c>
       <c r="S87">
-        <v>3202</v>
+        <v>261</v>
       </c>
       <c r="T87">
-        <v>261</v>
+        <v>924</v>
       </c>
       <c r="U87">
-        <v>924</v>
+        <v>161</v>
       </c>
       <c r="V87">
-        <v>161</v>
+        <v>777</v>
       </c>
       <c r="W87">
-        <v>777</v>
-      </c>
-      <c r="X87">
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>358</v>
       </c>
@@ -7623,44 +7624,44 @@
       <c r="K88" t="s">
         <v>361</v>
       </c>
+      <c r="L88">
+        <v>1063</v>
+      </c>
       <c r="M88">
-        <v>1063</v>
+        <v>144</v>
       </c>
       <c r="N88">
-        <v>144</v>
+        <v>377</v>
       </c>
       <c r="O88">
-        <v>377</v>
+        <v>93</v>
       </c>
       <c r="P88">
-        <v>93</v>
+        <v>238</v>
       </c>
       <c r="Q88">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="R88">
-        <v>90</v>
+        <v>1123</v>
       </c>
       <c r="S88">
-        <v>1123</v>
+        <v>103</v>
       </c>
       <c r="T88">
-        <v>103</v>
+        <v>337</v>
       </c>
       <c r="U88">
-        <v>337</v>
+        <v>59</v>
       </c>
       <c r="V88">
-        <v>59</v>
+        <v>292</v>
       </c>
       <c r="W88">
-        <v>292</v>
-      </c>
-      <c r="X88">
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>362</v>
       </c>
@@ -7691,44 +7692,44 @@
       <c r="K89" t="s">
         <v>365</v>
       </c>
+      <c r="L89">
+        <v>2162</v>
+      </c>
       <c r="M89">
-        <v>2162</v>
+        <v>475</v>
       </c>
       <c r="N89">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="O89">
-        <v>650</v>
+        <v>169</v>
       </c>
       <c r="P89">
-        <v>169</v>
+        <v>443</v>
       </c>
       <c r="Q89">
-        <v>443</v>
+        <v>126</v>
       </c>
       <c r="R89">
-        <v>126</v>
+        <v>2226</v>
       </c>
       <c r="S89">
-        <v>2226</v>
+        <v>393</v>
       </c>
       <c r="T89">
-        <v>393</v>
+        <v>688</v>
       </c>
       <c r="U89">
-        <v>688</v>
+        <v>88</v>
       </c>
       <c r="V89">
-        <v>88</v>
+        <v>589</v>
       </c>
       <c r="W89">
-        <v>589</v>
-      </c>
-      <c r="X89">
         <v>266</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>366</v>
       </c>
@@ -7759,44 +7760,44 @@
       <c r="K90" t="s">
         <v>369</v>
       </c>
+      <c r="L90">
+        <v>1439</v>
+      </c>
       <c r="M90">
-        <v>1439</v>
+        <v>268</v>
       </c>
       <c r="N90">
-        <v>268</v>
+        <v>457</v>
       </c>
       <c r="O90">
-        <v>457</v>
+        <v>90</v>
       </c>
       <c r="P90">
-        <v>90</v>
+        <v>298</v>
       </c>
       <c r="Q90">
-        <v>298</v>
+        <v>132</v>
       </c>
       <c r="R90">
-        <v>132</v>
+        <v>1313</v>
       </c>
       <c r="S90">
-        <v>1313</v>
+        <v>235</v>
       </c>
       <c r="T90">
-        <v>235</v>
+        <v>502</v>
       </c>
       <c r="U90">
-        <v>502</v>
+        <v>110</v>
       </c>
       <c r="V90">
-        <v>110</v>
+        <v>326</v>
       </c>
       <c r="W90">
-        <v>326</v>
-      </c>
-      <c r="X90">
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>370</v>
       </c>
@@ -7827,44 +7828,44 @@
       <c r="K91" t="s">
         <v>373</v>
       </c>
+      <c r="L91">
+        <v>6645</v>
+      </c>
       <c r="M91">
-        <v>6645</v>
+        <v>1010</v>
       </c>
       <c r="N91">
-        <v>1010</v>
+        <v>1738</v>
       </c>
       <c r="O91">
-        <v>1738</v>
+        <v>563</v>
       </c>
       <c r="P91">
-        <v>563</v>
+        <v>1064</v>
       </c>
       <c r="Q91">
-        <v>1064</v>
+        <v>600</v>
       </c>
       <c r="R91">
-        <v>600</v>
+        <v>6560</v>
       </c>
       <c r="S91">
-        <v>6560</v>
+        <v>1111</v>
       </c>
       <c r="T91">
-        <v>1111</v>
+        <v>1855</v>
       </c>
       <c r="U91">
-        <v>1855</v>
+        <v>598</v>
       </c>
       <c r="V91">
-        <v>598</v>
+        <v>1458</v>
       </c>
       <c r="W91">
-        <v>1458</v>
-      </c>
-      <c r="X91">
         <v>750</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>374</v>
       </c>
@@ -7895,44 +7896,44 @@
       <c r="K92" t="s">
         <v>377</v>
       </c>
+      <c r="L92">
+        <v>10007</v>
+      </c>
       <c r="M92">
-        <v>10007</v>
+        <v>928</v>
       </c>
       <c r="N92">
-        <v>928</v>
+        <v>2340</v>
       </c>
       <c r="O92">
-        <v>2340</v>
+        <v>509</v>
       </c>
       <c r="P92">
-        <v>509</v>
+        <v>1177</v>
       </c>
       <c r="Q92">
-        <v>1177</v>
+        <v>576</v>
       </c>
       <c r="R92">
-        <v>576</v>
+        <v>10143</v>
       </c>
       <c r="S92">
-        <v>10143</v>
+        <v>1182</v>
       </c>
       <c r="T92">
-        <v>1182</v>
+        <v>2489</v>
       </c>
       <c r="U92">
-        <v>2489</v>
+        <v>495</v>
       </c>
       <c r="V92">
-        <v>495</v>
+        <v>1718</v>
       </c>
       <c r="W92">
-        <v>1718</v>
-      </c>
-      <c r="X92">
         <v>662</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>378</v>
       </c>
@@ -7963,44 +7964,44 @@
       <c r="K93" t="s">
         <v>381</v>
       </c>
+      <c r="L93">
+        <v>4219</v>
+      </c>
       <c r="M93">
-        <v>4219</v>
+        <v>484</v>
       </c>
       <c r="N93">
-        <v>484</v>
+        <v>1154</v>
       </c>
       <c r="O93">
-        <v>1154</v>
+        <v>195</v>
       </c>
       <c r="P93">
-        <v>195</v>
+        <v>723</v>
       </c>
       <c r="Q93">
-        <v>723</v>
+        <v>287</v>
       </c>
       <c r="R93">
-        <v>287</v>
+        <v>4182</v>
       </c>
       <c r="S93">
-        <v>4182</v>
+        <v>539</v>
       </c>
       <c r="T93">
-        <v>539</v>
+        <v>1207</v>
       </c>
       <c r="U93">
-        <v>1207</v>
+        <v>272</v>
       </c>
       <c r="V93">
-        <v>272</v>
+        <v>921</v>
       </c>
       <c r="W93">
-        <v>921</v>
-      </c>
-      <c r="X93">
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>382</v>
       </c>
@@ -8031,44 +8032,44 @@
       <c r="K94" t="s">
         <v>385</v>
       </c>
+      <c r="L94">
+        <v>1204</v>
+      </c>
       <c r="M94">
-        <v>1204</v>
+        <v>200</v>
       </c>
       <c r="N94">
-        <v>200</v>
+        <v>361</v>
       </c>
       <c r="O94">
-        <v>361</v>
+        <v>99</v>
       </c>
       <c r="P94">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="Q94">
-        <v>248</v>
+        <v>115</v>
       </c>
       <c r="R94">
-        <v>115</v>
+        <v>1091</v>
       </c>
       <c r="S94">
-        <v>1091</v>
+        <v>167</v>
       </c>
       <c r="T94">
-        <v>167</v>
+        <v>329</v>
       </c>
       <c r="U94">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="V94">
-        <v>57</v>
+        <v>370</v>
       </c>
       <c r="W94">
-        <v>370</v>
-      </c>
-      <c r="X94">
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>386</v>
       </c>
@@ -8099,44 +8100,44 @@
       <c r="K95" t="s">
         <v>389</v>
       </c>
+      <c r="L95">
+        <v>6457</v>
+      </c>
       <c r="M95">
-        <v>6457</v>
+        <v>832</v>
       </c>
       <c r="N95">
-        <v>832</v>
+        <v>1865</v>
       </c>
       <c r="O95">
-        <v>1865</v>
+        <v>389</v>
       </c>
       <c r="P95">
-        <v>389</v>
+        <v>1161</v>
       </c>
       <c r="Q95">
-        <v>1161</v>
+        <v>541</v>
       </c>
       <c r="R95">
-        <v>541</v>
+        <v>6447</v>
       </c>
       <c r="S95">
-        <v>6447</v>
+        <v>920</v>
       </c>
       <c r="T95">
-        <v>920</v>
+        <v>2017</v>
       </c>
       <c r="U95">
-        <v>2017</v>
+        <v>386</v>
       </c>
       <c r="V95">
-        <v>386</v>
+        <v>1561</v>
       </c>
       <c r="W95">
-        <v>1561</v>
-      </c>
-      <c r="X95">
         <v>776</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>390</v>
       </c>
@@ -8167,44 +8168,44 @@
       <c r="K96" t="s">
         <v>393</v>
       </c>
+      <c r="L96">
+        <v>1968</v>
+      </c>
       <c r="M96">
-        <v>1968</v>
+        <v>253</v>
       </c>
       <c r="N96">
-        <v>253</v>
+        <v>615</v>
       </c>
       <c r="O96">
-        <v>615</v>
+        <v>200</v>
       </c>
       <c r="P96">
-        <v>200</v>
+        <v>343</v>
       </c>
       <c r="Q96">
-        <v>343</v>
+        <v>134</v>
       </c>
       <c r="R96">
-        <v>134</v>
+        <v>1898</v>
       </c>
       <c r="S96">
-        <v>1898</v>
+        <v>159</v>
       </c>
       <c r="T96">
-        <v>159</v>
+        <v>589</v>
       </c>
       <c r="U96">
-        <v>589</v>
+        <v>56</v>
       </c>
       <c r="V96">
-        <v>56</v>
+        <v>611</v>
       </c>
       <c r="W96">
-        <v>611</v>
-      </c>
-      <c r="X96">
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>394</v>
       </c>
@@ -8235,44 +8236,44 @@
       <c r="K97" t="s">
         <v>397</v>
       </c>
+      <c r="L97">
+        <v>3697</v>
+      </c>
       <c r="M97">
-        <v>3697</v>
+        <v>382</v>
       </c>
       <c r="N97">
-        <v>382</v>
+        <v>1215</v>
       </c>
       <c r="O97">
-        <v>1215</v>
+        <v>222</v>
       </c>
       <c r="P97">
-        <v>222</v>
+        <v>787</v>
       </c>
       <c r="Q97">
-        <v>787</v>
+        <v>386</v>
       </c>
       <c r="R97">
-        <v>386</v>
+        <v>3504</v>
       </c>
       <c r="S97">
-        <v>3504</v>
+        <v>361</v>
       </c>
       <c r="T97">
-        <v>361</v>
+        <v>1146</v>
       </c>
       <c r="U97">
-        <v>1146</v>
+        <v>147</v>
       </c>
       <c r="V97">
-        <v>147</v>
+        <v>913</v>
       </c>
       <c r="W97">
-        <v>913</v>
-      </c>
-      <c r="X97">
         <v>311</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>398</v>
       </c>
@@ -8303,44 +8304,44 @@
       <c r="K98" t="s">
         <v>401</v>
       </c>
+      <c r="L98">
+        <v>18979</v>
+      </c>
       <c r="M98">
-        <v>18979</v>
+        <v>2581</v>
       </c>
       <c r="N98">
-        <v>2581</v>
+        <v>4548</v>
       </c>
       <c r="O98">
-        <v>4548</v>
+        <v>1065</v>
       </c>
       <c r="P98">
-        <v>1065</v>
+        <v>2384</v>
       </c>
       <c r="Q98">
-        <v>2384</v>
+        <v>1027</v>
       </c>
       <c r="R98">
-        <v>1027</v>
+        <v>18822</v>
       </c>
       <c r="S98">
-        <v>18822</v>
+        <v>2661</v>
       </c>
       <c r="T98">
-        <v>2661</v>
+        <v>4935</v>
       </c>
       <c r="U98">
-        <v>4935</v>
+        <v>1171</v>
       </c>
       <c r="V98">
-        <v>1171</v>
+        <v>3522</v>
       </c>
       <c r="W98">
-        <v>3522</v>
-      </c>
-      <c r="X98">
         <v>1693</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>402</v>
       </c>
@@ -8371,44 +8372,44 @@
       <c r="K99" t="s">
         <v>405</v>
       </c>
+      <c r="L99">
+        <v>1584</v>
+      </c>
       <c r="M99">
-        <v>1584</v>
+        <v>187</v>
       </c>
       <c r="N99">
-        <v>187</v>
+        <v>452</v>
       </c>
       <c r="O99">
-        <v>452</v>
+        <v>177</v>
       </c>
       <c r="P99">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="Q99">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="R99">
-        <v>115</v>
+        <v>1369</v>
       </c>
       <c r="S99">
-        <v>1369</v>
+        <v>172</v>
       </c>
       <c r="T99">
-        <v>172</v>
+        <v>431</v>
       </c>
       <c r="U99">
-        <v>431</v>
+        <v>71</v>
       </c>
       <c r="V99">
-        <v>71</v>
+        <v>328</v>
       </c>
       <c r="W99">
-        <v>328</v>
-      </c>
-      <c r="X99">
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>406</v>
       </c>
@@ -8439,40 +8440,40 @@
       <c r="K100" t="s">
         <v>409</v>
       </c>
+      <c r="L100">
+        <v>2312</v>
+      </c>
       <c r="M100">
-        <v>2312</v>
+        <v>330</v>
       </c>
       <c r="N100">
-        <v>330</v>
+        <v>768</v>
       </c>
       <c r="O100">
-        <v>768</v>
+        <v>208</v>
       </c>
       <c r="P100">
-        <v>208</v>
+        <v>529</v>
       </c>
       <c r="Q100">
-        <v>529</v>
+        <v>184</v>
       </c>
       <c r="R100">
-        <v>184</v>
+        <v>2267</v>
       </c>
       <c r="S100">
-        <v>2267</v>
+        <v>216</v>
       </c>
       <c r="T100">
-        <v>216</v>
+        <v>738</v>
       </c>
       <c r="U100">
-        <v>738</v>
+        <v>154</v>
       </c>
       <c r="V100">
-        <v>154</v>
+        <v>734</v>
       </c>
       <c r="W100">
-        <v>734</v>
-      </c>
-      <c r="X100">
         <v>310</v>
       </c>
     </row>
